--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Value Label" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rawdata!$D$1:$D$49865</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rawdata!$F$1:$F$999</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3832,11 +3832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -3883,7 +3883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" hidden="1" spans="1:11">
       <c r="A2" s="7">
         <v>2023030001</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" hidden="1" spans="1:11">
       <c r="A3" s="7">
         <v>2023030003</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" hidden="1" spans="1:11">
       <c r="A4" s="7">
         <v>2023030004</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" hidden="1" spans="1:11">
       <c r="A5" s="7">
         <v>2023030014</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" hidden="1" spans="1:11">
       <c r="A6" s="7">
         <v>2023030015</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" hidden="1" spans="1:11">
       <c r="A7" s="7">
         <v>2023030024</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" hidden="1" spans="1:11">
       <c r="A8" s="7">
         <v>2023030047</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" hidden="1" spans="1:11">
       <c r="A9" s="7">
         <v>2023030055</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" hidden="1" spans="1:11">
       <c r="A10" s="7">
         <v>2023030075</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" hidden="1" spans="1:11">
       <c r="A11" s="7">
         <v>2023030076</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" hidden="1" spans="1:11">
       <c r="A12" s="7">
         <v>2023030117</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" hidden="1" spans="1:11">
       <c r="A13" s="7">
         <v>2023030120</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" hidden="1" spans="1:11">
       <c r="A14" s="7">
         <v>2023030121</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" hidden="1" spans="1:11">
       <c r="A15" s="7">
         <v>2023030138</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" hidden="1" spans="1:11">
       <c r="A16" s="7">
         <v>2023030144</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" hidden="1" spans="1:11">
       <c r="A17" s="7">
         <v>2023030153</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" hidden="1" spans="1:11">
       <c r="A18" s="7">
         <v>2023030167</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" hidden="1" spans="1:11">
       <c r="A19" s="7">
         <v>2023030179</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" hidden="1" spans="1:11">
       <c r="A20" s="7">
         <v>2023030181</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" hidden="1" spans="1:11">
       <c r="A21" s="7">
         <v>2023030183</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" hidden="1" spans="1:11">
       <c r="A22" s="7">
         <v>2023030196</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" hidden="1" spans="1:11">
       <c r="A23" s="7">
         <v>2023030219</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" hidden="1" spans="1:11">
       <c r="A24" s="7">
         <v>2023030226</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" hidden="1" spans="1:11">
       <c r="A25" s="7">
         <v>2023030256</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" hidden="1" spans="1:11">
       <c r="A26" s="7">
         <v>2023030257</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" hidden="1" spans="1:11">
       <c r="A27" s="7">
         <v>2023030270</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" hidden="1" spans="1:11">
       <c r="A28" s="7">
         <v>2023030271</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" hidden="1" spans="1:11">
       <c r="A29" s="7">
         <v>2023030272</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" hidden="1" spans="1:11">
       <c r="A30" s="7">
         <v>2023030275</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" hidden="1" spans="1:11">
       <c r="A31" s="7">
         <v>2023030276</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" hidden="1" spans="1:11">
       <c r="A32" s="7">
         <v>2023030290</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" hidden="1" spans="1:11">
       <c r="A33" s="7">
         <v>2023030311</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" hidden="1" spans="1:11">
       <c r="A34" s="7">
         <v>2023030312</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" hidden="1" spans="1:11">
       <c r="A35" s="7">
         <v>2023030329</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" hidden="1" spans="1:11">
       <c r="A36" s="7">
         <v>2023030342</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" hidden="1" spans="1:11">
       <c r="A37" s="7">
         <v>2023030354</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" hidden="1" spans="1:11">
       <c r="A38" s="7">
         <v>2023030355</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" hidden="1" spans="1:11">
       <c r="A39" s="7">
         <v>2023030366</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" hidden="1" spans="1:11">
       <c r="A40" s="7">
         <v>2023030398</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" hidden="1" spans="1:11">
       <c r="A41" s="7">
         <v>2023030400</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" hidden="1" spans="1:11">
       <c r="A42" s="7">
         <v>2023030402</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" hidden="1" spans="1:11">
       <c r="A43" s="7">
         <v>2023030448</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" hidden="1" spans="1:11">
       <c r="A44" s="7">
         <v>2023030455</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" hidden="1" spans="1:11">
       <c r="A45" s="7">
         <v>2023030457</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" hidden="1" spans="1:11">
       <c r="A46" s="7">
         <v>2023030458</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" hidden="1" spans="1:11">
       <c r="A47" s="7">
         <v>2023030474</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" hidden="1" spans="1:11">
       <c r="A48" s="7">
         <v>2023030485</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" hidden="1" spans="1:11">
       <c r="A49" s="7">
         <v>2023030498</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" hidden="1" spans="1:11">
       <c r="A50" s="7">
         <v>2023030508</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" hidden="1" spans="1:11">
       <c r="A51" s="7">
         <v>2023030509</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" hidden="1" spans="1:11">
       <c r="A52" s="7">
         <v>2023030510</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" hidden="1" spans="1:11">
       <c r="A53" s="7">
         <v>2023030511</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" hidden="1" spans="1:11">
       <c r="A54" s="7">
         <v>2023030520</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" hidden="1" spans="1:11">
       <c r="A55" s="7">
         <v>2023030525</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" hidden="1" spans="1:11">
       <c r="A56" s="7">
         <v>2023030526</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" hidden="1" spans="1:11">
       <c r="A57" s="7">
         <v>2023030548</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" hidden="1" spans="1:11">
       <c r="A58" s="7">
         <v>2023030562</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" hidden="1" spans="1:11">
       <c r="A59" s="7">
         <v>2023030586</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" hidden="1" spans="1:11">
       <c r="A60" s="7">
         <v>2023030600</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" hidden="1" spans="1:11">
       <c r="A61" s="7">
         <v>2023030614</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" hidden="1" spans="1:11">
       <c r="A62" s="7">
         <v>2023030615</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" hidden="1" spans="1:11">
       <c r="A63" s="7">
         <v>2023030616</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" hidden="1" spans="1:11">
       <c r="A64" s="7">
         <v>2023030617</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" hidden="1" spans="1:11">
       <c r="A65" s="7">
         <v>2023030618</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" hidden="1" spans="1:11">
       <c r="A66" s="7">
         <v>2023030619</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" hidden="1" spans="1:11">
       <c r="A67" s="7">
         <v>2023030620</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" hidden="1" spans="1:11">
       <c r="A68" s="7">
         <v>2023030621</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" hidden="1" spans="1:11">
       <c r="A69" s="7">
         <v>2023030622</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" hidden="1" spans="1:11">
       <c r="A70" s="7">
         <v>2023030623</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" hidden="1" spans="1:11">
       <c r="A71" s="7">
         <v>2023030625</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" hidden="1" spans="1:11">
       <c r="A72" s="7">
         <v>2023030626</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" hidden="1" spans="1:11">
       <c r="A73" s="7">
         <v>2023030629</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" hidden="1" spans="1:11">
       <c r="A74" s="7">
         <v>2023030631</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" hidden="1" spans="1:11">
       <c r="A75" s="7">
         <v>2023030632</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" hidden="1" spans="1:11">
       <c r="A76" s="7">
         <v>2023030633</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" hidden="1" spans="1:11">
       <c r="A77" s="7">
         <v>2023030634</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" hidden="1" spans="1:11">
       <c r="A78" s="7">
         <v>2023030635</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" hidden="1" spans="1:11">
       <c r="A79" s="7">
         <v>2023030636</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" hidden="1" spans="1:11">
       <c r="A80" s="7">
         <v>2023030637</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" hidden="1" spans="1:11">
       <c r="A81" s="7">
         <v>2023030638</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" hidden="1" spans="1:11">
       <c r="A82" s="7">
         <v>2023030639</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" hidden="1" spans="1:11">
       <c r="A83" s="7">
         <v>2023030641</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" hidden="1" spans="1:11">
       <c r="A84" s="7">
         <v>2023030644</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" hidden="1" spans="1:11">
       <c r="A85" s="7">
         <v>2023030645</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" hidden="1" spans="1:11">
       <c r="A86" s="7">
         <v>2023030646</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" hidden="1" spans="1:11">
       <c r="A87" s="7">
         <v>2023030647</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" hidden="1" spans="1:11">
       <c r="A88" s="7">
         <v>2023030650</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" hidden="1" spans="1:11">
       <c r="A89" s="7">
         <v>2023030651</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" hidden="1" spans="1:11">
       <c r="A90" s="7">
         <v>2023030652</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" hidden="1" spans="1:11">
       <c r="A91" s="7">
         <v>2023030653</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" hidden="1" spans="1:11">
       <c r="A92" s="7">
         <v>2023030654</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" hidden="1" spans="1:11">
       <c r="A93" s="7">
         <v>2023030657</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" hidden="1" spans="1:11">
       <c r="A94" s="7">
         <v>2023030658</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" hidden="1" spans="1:11">
       <c r="A95" s="7">
         <v>2023030659</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" hidden="1" spans="1:11">
       <c r="A96" s="7">
         <v>2023030660</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" hidden="1" spans="1:11">
       <c r="A97" s="7">
         <v>2023030662</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" hidden="1" spans="1:11">
       <c r="A98" s="7">
         <v>2023030666</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" hidden="1" spans="1:11">
       <c r="A99" s="7">
         <v>2023030669</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" hidden="1" spans="1:11">
       <c r="A100" s="7">
         <v>2023030670</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" hidden="1" spans="1:11">
       <c r="A101" s="7">
         <v>2023030671</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" hidden="1" spans="1:11">
       <c r="A102" s="7">
         <v>2023030672</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" hidden="1" spans="1:11">
       <c r="A103" s="7">
         <v>2023030673</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" hidden="1" spans="1:11">
       <c r="A104" s="7">
         <v>2023030677</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" hidden="1" spans="1:11">
       <c r="A105" s="7">
         <v>2023030689</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" hidden="1" spans="1:11">
       <c r="A106" s="7">
         <v>2023030693</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" hidden="1" spans="1:11">
       <c r="A107" s="7">
         <v>2023030703</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" hidden="1" spans="1:11">
       <c r="A108" s="7">
         <v>2023030704</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" hidden="1" spans="1:11">
       <c r="A109" s="7">
         <v>2023030705</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" hidden="1" spans="1:11">
       <c r="A110" s="7">
         <v>2023030706</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" hidden="1" spans="1:11">
       <c r="A111" s="7">
         <v>2023030708</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" hidden="1" spans="1:11">
       <c r="A112" s="7">
         <v>2023030711</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" hidden="1" spans="1:11">
       <c r="A113" s="7">
         <v>2023030712</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" hidden="1" spans="1:11">
       <c r="A114" s="7">
         <v>2023030713</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" hidden="1" spans="1:11">
       <c r="A115" s="7">
         <v>2023030714</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" hidden="1" spans="1:11">
       <c r="A116" s="7">
         <v>2023030716</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" hidden="1" spans="1:11">
       <c r="A117" s="7">
         <v>2023030717</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" hidden="1" spans="1:11">
       <c r="A118" s="7">
         <v>2023030718</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" hidden="1" spans="1:11">
       <c r="A119" s="7">
         <v>2023030719</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" hidden="1" spans="1:11">
       <c r="A120" s="7">
         <v>2023030720</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" hidden="1" spans="1:11">
       <c r="A121" s="7">
         <v>2023030721</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" hidden="1" spans="1:11">
       <c r="A122" s="7">
         <v>2023030722</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" hidden="1" spans="1:11">
       <c r="A123" s="7">
         <v>2023030818</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" hidden="1" spans="1:11">
       <c r="A124" s="7">
         <v>2023030819</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" hidden="1" spans="1:11">
       <c r="A125" s="7">
         <v>2023030820</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" hidden="1" spans="1:11">
       <c r="A126" s="7">
         <v>2023030822</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" hidden="1" spans="1:11">
       <c r="A127" s="7">
         <v>2023030823</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" hidden="1" spans="1:11">
       <c r="A128" s="7">
         <v>2023030824</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" hidden="1" spans="1:11">
       <c r="A129" s="7">
         <v>2023030825</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" hidden="1" spans="1:11">
       <c r="A130" s="7">
         <v>2023030826</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" hidden="1" spans="1:11">
       <c r="A131" s="7">
         <v>2023030827</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" hidden="1" spans="1:11">
       <c r="A132" s="7">
         <v>2023030897</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" hidden="1" spans="1:11">
       <c r="A133" s="7">
         <v>2023030898</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" hidden="1" spans="1:11">
       <c r="A134" s="7">
         <v>2023030899</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" hidden="1" spans="1:11">
       <c r="A135" s="7">
         <v>2023030954</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" hidden="1" spans="1:11">
       <c r="A136" s="7">
         <v>2023030977</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" hidden="1" spans="1:11">
       <c r="A137" s="7">
         <v>2023030980</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" hidden="1" spans="1:11">
       <c r="A138" s="7">
         <v>2023031028</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" hidden="1" spans="1:11">
       <c r="A139" s="7">
         <v>2023031029</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" hidden="1" spans="1:11">
       <c r="A140" s="7">
         <v>2023031030</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" hidden="1" spans="1:11">
       <c r="A141" s="7">
         <v>2023031061</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" hidden="1" spans="1:11">
       <c r="A142" s="7">
         <v>2023031062</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" hidden="1" spans="1:11">
       <c r="A143" s="7">
         <v>2023031064</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" hidden="1" spans="1:11">
       <c r="A144" s="7">
         <v>2023031101</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" hidden="1" spans="1:11">
       <c r="A145" s="7">
         <v>2023031104</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" hidden="1" spans="1:11">
       <c r="A146" s="7">
         <v>2023031105</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" hidden="1" spans="1:11">
       <c r="A147" s="7">
         <v>2023031107</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" hidden="1" spans="1:11">
       <c r="A148" s="7">
         <v>2023031110</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" hidden="1" spans="1:11">
       <c r="A149" s="7">
         <v>2023031111</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" hidden="1" spans="1:11">
       <c r="A150" s="7">
         <v>2023031112</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" hidden="1" spans="1:11">
       <c r="A151" s="7">
         <v>2023031113</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" hidden="1" spans="1:11">
       <c r="A152" s="7">
         <v>2023031114</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" hidden="1" spans="1:11">
       <c r="A153" s="7">
         <v>2023031115</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" hidden="1" spans="1:11">
       <c r="A154" s="7">
         <v>2023031116</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" hidden="1" spans="1:11">
       <c r="A155" s="7">
         <v>2023031117</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" hidden="1" spans="1:11">
       <c r="A156" s="7">
         <v>2023031183</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" hidden="1" spans="1:11">
       <c r="A157" s="7">
         <v>2023031184</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" hidden="1" spans="1:11">
       <c r="A158" s="7">
         <v>2023031211</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" hidden="1" spans="1:11">
       <c r="A159" s="7">
         <v>2023031212</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" hidden="1" spans="1:11">
       <c r="A160" s="7">
         <v>2023031213</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" hidden="1" spans="1:11">
       <c r="A161" s="7">
         <v>2023031214</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" hidden="1" spans="1:11">
       <c r="A162" s="7">
         <v>2023031246</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" hidden="1" spans="1:11">
       <c r="A163" s="7">
         <v>2023031260</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" hidden="1" spans="1:11">
       <c r="A164" s="7">
         <v>2023031274</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" hidden="1" spans="1:11">
       <c r="A165" s="7">
         <v>2023031275</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" hidden="1" spans="1:11">
       <c r="A166" s="7">
         <v>2023031279</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" hidden="1" spans="1:11">
       <c r="A167" s="7">
         <v>2023031280</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" hidden="1" spans="1:11">
       <c r="A168" s="7">
         <v>2023031282</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" hidden="1" spans="1:11">
       <c r="A169" s="7">
         <v>2023031283</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" hidden="1" spans="1:11">
       <c r="A170" s="7">
         <v>2023031330</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" hidden="1" spans="1:11">
       <c r="A171" s="7">
         <v>2023031331</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" hidden="1" spans="1:11">
       <c r="A172" s="7">
         <v>2023031332</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" hidden="1" spans="1:11">
       <c r="A173" s="7">
         <v>2023031334</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" hidden="1" spans="1:11">
       <c r="A174" s="7">
         <v>2023031335</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" hidden="1" spans="1:11">
       <c r="A175" s="7">
         <v>2023031336</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" hidden="1" spans="1:11">
       <c r="A176" s="7">
         <v>2023031337</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" hidden="1" spans="1:11">
       <c r="A177" s="7">
         <v>2023031367</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" hidden="1" spans="1:11">
       <c r="A178" s="7">
         <v>2023031369</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" hidden="1" spans="1:11">
       <c r="A179" s="7">
         <v>2023031370</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" hidden="1" spans="1:11">
       <c r="A180" s="7">
         <v>2023031419</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" hidden="1" spans="1:11">
       <c r="A181" s="7">
         <v>2023031425</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" hidden="1" spans="1:11">
       <c r="A182" s="7">
         <v>2023031426</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" hidden="1" spans="1:11">
       <c r="A183" s="7">
         <v>2023031428</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" hidden="1" spans="1:11">
       <c r="A184" s="7">
         <v>2023031429</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" hidden="1" spans="1:11">
       <c r="A185" s="7">
         <v>2023031430</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" hidden="1" spans="1:11">
       <c r="A186" s="7">
         <v>2023031431</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" hidden="1" spans="1:11">
       <c r="A187" s="7">
         <v>2023031432</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" hidden="1" spans="1:11">
       <c r="A188" s="7">
         <v>2023031434</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" hidden="1" spans="1:11">
       <c r="A189" s="7">
         <v>2023031436</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" hidden="1" spans="1:11">
       <c r="A190" s="7">
         <v>2023031437</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" hidden="1" spans="1:11">
       <c r="A191" s="7">
         <v>2023031438</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" hidden="1" spans="1:11">
       <c r="A192" s="7">
         <v>2023031439</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" hidden="1" spans="1:11">
       <c r="A193" s="7">
         <v>2023031440</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" hidden="1" spans="1:11">
       <c r="A194" s="7">
         <v>2023031442</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" hidden="1" spans="1:11">
       <c r="A195" s="7">
         <v>2023031497</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" hidden="1" spans="1:11">
       <c r="A196" s="7">
         <v>2023031499</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" hidden="1" spans="1:11">
       <c r="A197" s="7">
         <v>2023031500</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" hidden="1" spans="1:11">
       <c r="A198" s="7">
         <v>2023031539</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" hidden="1" spans="1:11">
       <c r="A199" s="7">
         <v>2023031540</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" hidden="1" spans="1:11">
       <c r="A200" s="7">
         <v>2023031541</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" hidden="1" spans="1:11">
       <c r="A201" s="7">
         <v>2023031577</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" hidden="1" spans="1:11">
       <c r="A202" s="7">
         <v>2023031586</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" hidden="1" spans="1:11">
       <c r="A203" s="7">
         <v>2023031595</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" hidden="1" spans="1:11">
       <c r="A204" s="7">
         <v>2023031596</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" hidden="1" spans="1:11">
       <c r="A205" s="7">
         <v>2023031597</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" hidden="1" spans="1:11">
       <c r="A206" s="7">
         <v>2023031598</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" hidden="1" spans="1:11">
       <c r="A207" s="7">
         <v>2023031599</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" hidden="1" spans="1:11">
       <c r="A208" s="7">
         <v>2023031603</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" hidden="1" spans="1:11">
       <c r="A209" s="7">
         <v>2023031604</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" hidden="1" spans="1:11">
       <c r="A210" s="7">
         <v>2023031605</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" hidden="1" spans="1:11">
       <c r="A211" s="7">
         <v>2023031607</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" hidden="1" spans="1:11">
       <c r="A212" s="7">
         <v>2023031662</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" hidden="1" spans="1:11">
       <c r="A213" s="7">
         <v>2023031664</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" hidden="1" spans="1:11">
       <c r="A214" s="7">
         <v>2023031665</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" hidden="1" spans="1:11">
       <c r="A215" s="7">
         <v>2023031666</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" hidden="1" spans="1:11">
       <c r="A216" s="7">
         <v>2023031709</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" hidden="1" spans="1:11">
       <c r="A217" s="7">
         <v>2023031710</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" hidden="1" spans="1:11">
       <c r="A218" s="7">
         <v>2023031711</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" hidden="1" spans="1:11">
       <c r="A219" s="7">
         <v>2023031713</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" hidden="1" spans="1:11">
       <c r="A220" s="7">
         <v>2023031714</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" hidden="1" spans="1:11">
       <c r="A221" s="7">
         <v>2023031715</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" hidden="1" spans="1:11">
       <c r="A222" s="7">
         <v>2023031716</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" hidden="1" spans="1:11">
       <c r="A223" s="7">
         <v>2023031752</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" hidden="1" spans="1:11">
       <c r="A224" s="7">
         <v>2023031753</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" hidden="1" spans="1:11">
       <c r="A225" s="7">
         <v>2023031764</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" hidden="1" spans="1:11">
       <c r="A226" s="7">
         <v>2023031766</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" hidden="1" spans="1:11">
       <c r="A227" s="7">
         <v>2023031776</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" hidden="1" spans="1:11">
       <c r="A228" s="7">
         <v>2023031778</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" hidden="1" spans="1:11">
       <c r="A229" s="7">
         <v>2023031779</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" hidden="1" spans="1:11">
       <c r="A230" s="7">
         <v>2023031780</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" hidden="1" spans="1:11">
       <c r="A231" s="7">
         <v>2023031781</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" hidden="1" spans="1:11">
       <c r="A232" s="7">
         <v>2023031782</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" hidden="1" spans="1:11">
       <c r="A233" s="7">
         <v>2023031783</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" hidden="1" spans="1:11">
       <c r="A234" s="7">
         <v>2023031838</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" hidden="1" spans="1:11">
       <c r="A235" s="7">
         <v>2023031839</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" hidden="1" spans="1:11">
       <c r="A236" s="7">
         <v>2023031869</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" hidden="1" spans="1:11">
       <c r="A237" s="7">
         <v>2023031870</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" hidden="1" spans="1:11">
       <c r="A238" s="7">
         <v>2023031871</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" hidden="1" spans="1:11">
       <c r="A239" s="7">
         <v>2023031890</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" hidden="1" spans="1:11">
       <c r="A240" s="7">
         <v>2023031891</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" hidden="1" spans="1:11">
       <c r="A241" s="7">
         <v>2023031900</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" hidden="1" spans="1:11">
       <c r="A242" s="7">
         <v>2023031940</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" hidden="1" spans="1:11">
       <c r="A243" s="7">
         <v>2023031965</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" hidden="1" spans="1:11">
       <c r="A244" s="7">
         <v>2023031979</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" hidden="1" spans="1:11">
       <c r="A245" s="7">
         <v>2023031987</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" hidden="1" spans="1:11">
       <c r="A246" s="7">
         <v>2023031993</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" hidden="1" spans="1:11">
       <c r="A247" s="7">
         <v>2023032000</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" hidden="1" spans="1:11">
       <c r="A248" s="7">
         <v>2023032001</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" hidden="1" spans="1:11">
       <c r="A249" s="7">
         <v>2023032017</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" hidden="1" spans="1:11">
       <c r="A250" s="7">
         <v>2023032032</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" hidden="1" spans="1:11">
       <c r="A251" s="7">
         <v>2023030007</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" hidden="1" spans="1:11">
       <c r="A252" s="7">
         <v>2023030009</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" hidden="1" spans="1:11">
       <c r="A253" s="7">
         <v>2023030013</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" hidden="1" spans="1:11">
       <c r="A254" s="7">
         <v>2023030016</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" hidden="1" spans="1:11">
       <c r="A255" s="7">
         <v>2023030020</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" hidden="1" spans="1:11">
       <c r="A256" s="7">
         <v>2023030021</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" hidden="1" spans="1:11">
       <c r="A257" s="7">
         <v>2023030027</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" hidden="1" spans="1:11">
       <c r="A258" s="7">
         <v>2023030041</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" hidden="1" spans="1:11">
       <c r="A260" s="7">
         <v>2023030061</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" hidden="1" spans="1:11">
       <c r="A261" s="7">
         <v>2023030069</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" hidden="1" spans="1:11">
       <c r="A262" s="7">
         <v>2023030082</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" hidden="1" spans="1:11">
       <c r="A263" s="7">
         <v>2023030085</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" hidden="1" spans="1:11">
       <c r="A264" s="7">
         <v>2023030090</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" hidden="1" spans="1:11">
       <c r="A265" s="7">
         <v>2023030091</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" hidden="1" spans="1:11">
       <c r="A266" s="7">
         <v>2023030092</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" hidden="1" spans="1:11">
       <c r="A267" s="7">
         <v>2023030096</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" hidden="1" spans="1:11">
       <c r="A268" s="7">
         <v>2023030102</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" hidden="1" spans="1:11">
       <c r="A269" s="7">
         <v>2023030104</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" hidden="1" spans="1:11">
       <c r="A270" s="7">
         <v>2023030111</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" hidden="1" spans="1:11">
       <c r="A271" s="7">
         <v>2023030114</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" hidden="1" spans="1:11">
       <c r="A272" s="7">
         <v>2023030115</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" hidden="1" spans="1:11">
       <c r="A273" s="7">
         <v>2023030116</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" hidden="1" spans="1:11">
       <c r="A274" s="7">
         <v>2023030127</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" hidden="1" spans="1:11">
       <c r="A275" s="7">
         <v>2023030129</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" hidden="1" spans="1:11">
       <c r="A276" s="7">
         <v>2023030132</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" hidden="1" spans="1:11">
       <c r="A277" s="7">
         <v>2023030137</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" hidden="1" spans="1:11">
       <c r="A278" s="7">
         <v>2023030140</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" hidden="1" spans="1:11">
       <c r="A279" s="7">
         <v>2023030147</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" hidden="1" spans="1:11">
       <c r="A280" s="7">
         <v>2023030154</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" hidden="1" spans="1:11">
       <c r="A281" s="7">
         <v>2023030168</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" hidden="1" spans="1:11">
       <c r="A282" s="7">
         <v>2023030169</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" hidden="1" spans="1:11">
       <c r="A283" s="7">
         <v>2023030171</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" hidden="1" spans="1:11">
       <c r="A284" s="7">
         <v>2023030174</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" hidden="1" spans="1:11">
       <c r="A285" s="7">
         <v>2023030182</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" hidden="1" spans="1:11">
       <c r="A286" s="7">
         <v>2023030193</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" hidden="1" spans="1:11">
       <c r="A288" s="7">
         <v>2023030202</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" hidden="1" spans="1:11">
       <c r="A289" s="7">
         <v>2023030213</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" hidden="1" spans="1:11">
       <c r="A290" s="7">
         <v>2023030215</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" hidden="1" spans="1:11">
       <c r="A291" s="7">
         <v>2023030221</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" hidden="1" spans="1:11">
       <c r="A292" s="7">
         <v>2023030230</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" hidden="1" spans="1:11">
       <c r="A293" s="7">
         <v>2023030238</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" hidden="1" spans="1:11">
       <c r="A294" s="7">
         <v>2023030247</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" hidden="1" spans="1:11">
       <c r="A295" s="7">
         <v>2023030248</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" hidden="1" spans="1:11">
       <c r="A296" s="7">
         <v>2023030250</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" hidden="1" spans="1:11">
       <c r="A297" s="7">
         <v>2023030251</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" hidden="1" spans="1:11">
       <c r="A298" s="7">
         <v>2023030261</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" hidden="1" spans="1:11">
       <c r="A299" s="7">
         <v>2023030262</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" hidden="1" spans="1:11">
       <c r="A300" s="7">
         <v>2023030263</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" hidden="1" spans="1:11">
       <c r="A301" s="7">
         <v>2023030279</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" hidden="1" spans="1:11">
       <c r="A302" s="7">
         <v>2023030280</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" hidden="1" spans="1:11">
       <c r="A303" s="7">
         <v>2023030281</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" hidden="1" spans="1:11">
       <c r="A304" s="7">
         <v>2023030287</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" hidden="1" spans="1:11">
       <c r="A305" s="7">
         <v>2023030307</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" hidden="1" spans="1:11">
       <c r="A306" s="7">
         <v>2023030309</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" hidden="1" spans="1:11">
       <c r="A307" s="7">
         <v>2023030317</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" hidden="1" spans="1:11">
       <c r="A308" s="7">
         <v>2023030320</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" hidden="1" spans="1:11">
       <c r="A309" s="7">
         <v>2023030323</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" hidden="1" spans="1:11">
       <c r="A310" s="7">
         <v>2023030325</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" hidden="1" spans="1:11">
       <c r="A311" s="7">
         <v>2023030335</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" hidden="1" spans="1:11">
       <c r="A312" s="7">
         <v>2023030337</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" hidden="1" spans="1:11">
       <c r="A313" s="7">
         <v>2023030340</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" hidden="1" spans="1:11">
       <c r="A315" s="7">
         <v>2023030348</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" hidden="1" spans="1:11">
       <c r="A316" s="7">
         <v>2023030357</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" hidden="1" spans="1:11">
       <c r="A317" s="7">
         <v>2023030367</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" hidden="1" spans="1:11">
       <c r="A318" s="7">
         <v>2023030383</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" hidden="1" spans="1:11">
       <c r="A319" s="7">
         <v>2023030389</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" hidden="1" spans="1:11">
       <c r="A320" s="7">
         <v>2023030390</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" hidden="1" spans="1:11">
       <c r="A321" s="7">
         <v>2023030391</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" hidden="1" spans="1:11">
       <c r="A322" s="7">
         <v>2023030394</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" hidden="1" spans="1:11">
       <c r="A323" s="7">
         <v>2023030411</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" hidden="1" spans="1:11">
       <c r="A324" s="7">
         <v>2023030414</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" hidden="1" spans="1:11">
       <c r="A325" s="7">
         <v>2023030417</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" hidden="1" spans="1:11">
       <c r="A327" s="7">
         <v>2023030436</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" hidden="1" spans="1:11">
       <c r="A328" s="7">
         <v>2023030441</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" hidden="1" spans="1:11">
       <c r="A329" s="7">
         <v>2023030459</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" hidden="1" spans="1:11">
       <c r="A330" s="7">
         <v>2023030462</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" hidden="1" spans="1:11">
       <c r="A331" s="7">
         <v>2023030465</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" hidden="1" spans="1:11">
       <c r="A332" s="7">
         <v>2023030472</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" hidden="1" spans="1:11">
       <c r="A333" s="7">
         <v>2023030473</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" hidden="1" spans="1:11">
       <c r="A334" s="7">
         <v>2023030475</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" hidden="1" spans="1:11">
       <c r="A335" s="7">
         <v>2023030486</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" hidden="1" spans="1:11">
       <c r="A336" s="7">
         <v>2023030487</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" hidden="1" spans="1:11">
       <c r="A337" s="7">
         <v>2023030488</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" hidden="1" spans="1:11">
       <c r="A338" s="7">
         <v>2023030489</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" hidden="1" spans="1:11">
       <c r="A339" s="7">
         <v>2023030495</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" hidden="1" spans="1:11">
       <c r="A340" s="7">
         <v>2023030496</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" hidden="1" spans="1:11">
       <c r="A341" s="7">
         <v>2023030507</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" hidden="1" spans="1:11">
       <c r="A342" s="7">
         <v>2023030523</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" hidden="1" spans="1:11">
       <c r="A343" s="7">
         <v>2023030531</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" hidden="1" spans="1:11">
       <c r="A344" s="7">
         <v>2023030537</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" hidden="1" spans="1:11">
       <c r="A345" s="7">
         <v>2023030557</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" hidden="1" spans="1:11">
       <c r="A346" s="7">
         <v>2023030558</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" hidden="1" spans="1:11">
       <c r="A347" s="7">
         <v>2023030561</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" hidden="1" spans="1:11">
       <c r="A348" s="7">
         <v>2023030567</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" hidden="1" spans="1:11">
       <c r="A349" s="7">
         <v>2023030571</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" hidden="1" spans="1:11">
       <c r="A350" s="7">
         <v>2023030583</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" hidden="1" spans="1:11">
       <c r="A351" s="7">
         <v>2023030585</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" hidden="1" spans="1:11">
       <c r="A352" s="7">
         <v>2023030598</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" hidden="1" spans="1:11">
       <c r="A353" s="7">
         <v>2023030599</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" hidden="1" spans="1:11">
       <c r="A354" s="7">
         <v>2023030605</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" hidden="1" spans="1:11">
       <c r="A355" s="7">
         <v>2023030609</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" hidden="1" spans="1:11">
       <c r="A356" s="7">
         <v>2023030610</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" hidden="1" spans="1:11">
       <c r="A357" s="7">
         <v>2023030611</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" hidden="1" spans="1:11">
       <c r="A358" s="7">
         <v>2023030685</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" hidden="1" spans="1:11">
       <c r="A359" s="7">
         <v>2023030691</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" hidden="1" spans="1:11">
       <c r="A360" s="7">
         <v>2023030694</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" hidden="1" spans="1:11">
       <c r="A361" s="7">
         <v>2023030724</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" hidden="1" spans="1:11">
       <c r="A362" s="7">
         <v>2023030734</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" hidden="1" spans="1:11">
       <c r="A363" s="7">
         <v>2023030737</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" hidden="1" spans="1:11">
       <c r="A364" s="7">
         <v>2023030741</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" hidden="1" spans="1:11">
       <c r="A365" s="7">
         <v>2023030743</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" hidden="1" spans="1:11">
       <c r="A366" s="7">
         <v>2023030746</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" hidden="1" spans="1:11">
       <c r="A367" s="7">
         <v>2023030747</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" hidden="1" spans="1:11">
       <c r="A368" s="7">
         <v>2023030748</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" hidden="1" spans="1:11">
       <c r="A369" s="7">
         <v>2023030749</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" hidden="1" spans="1:11">
       <c r="A370" s="7">
         <v>2023030750</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" hidden="1" spans="1:11">
       <c r="A371" s="7">
         <v>2023030754</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" hidden="1" spans="1:11">
       <c r="A372" s="7">
         <v>2023030759</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" hidden="1" spans="1:11">
       <c r="A373" s="7">
         <v>2023030760</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" hidden="1" spans="1:11">
       <c r="A374" s="7">
         <v>2023030761</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" hidden="1" spans="1:11">
       <c r="A375" s="7">
         <v>2023030763</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" hidden="1" spans="1:11">
       <c r="A376" s="7">
         <v>2023030765</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" hidden="1" spans="1:11">
       <c r="A377" s="7">
         <v>2023030767</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" hidden="1" spans="1:11">
       <c r="A378" s="7">
         <v>2023030768</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" hidden="1" spans="1:11">
       <c r="A379" s="7">
         <v>2023030770</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" hidden="1" spans="1:11">
       <c r="A380" s="7">
         <v>2023030771</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" hidden="1" spans="1:11">
       <c r="A381" s="7">
         <v>2023030772</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" hidden="1" spans="1:11">
       <c r="A382" s="7">
         <v>2023030800</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" hidden="1" spans="1:11">
       <c r="A383" s="7">
         <v>2023030801</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" hidden="1" spans="1:11">
       <c r="A384" s="7">
         <v>2023030838</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" hidden="1" spans="1:11">
       <c r="A385" s="7">
         <v>2023030841</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" hidden="1" spans="1:11">
       <c r="A386" s="7">
         <v>2023030852</v>
       </c>
@@ -17358,7 +17358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" hidden="1" spans="1:11">
       <c r="A387" s="7">
         <v>2023030853</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" hidden="1" spans="1:11">
       <c r="A388" s="7">
         <v>2023030854</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" hidden="1" spans="1:11">
       <c r="A389" s="7">
         <v>2023030856</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" hidden="1" spans="1:11">
       <c r="A390" s="7">
         <v>2023030858</v>
       </c>
@@ -17498,7 +17498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" hidden="1" spans="1:11">
       <c r="A391" s="7">
         <v>2023030860</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" hidden="1" spans="1:11">
       <c r="A392" s="7">
         <v>2023030862</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" hidden="1" spans="1:11">
       <c r="A393" s="7">
         <v>2023030869</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" hidden="1" spans="1:11">
       <c r="A394" s="7">
         <v>2023030870</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" hidden="1" spans="1:11">
       <c r="A395" s="7">
         <v>2023030873</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" hidden="1" spans="1:11">
       <c r="A396" s="7">
         <v>2023030875</v>
       </c>
@@ -17708,7 +17708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" hidden="1" spans="1:11">
       <c r="A397" s="7">
         <v>2023030878</v>
       </c>
@@ -17743,7 +17743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" hidden="1" spans="1:11">
       <c r="A398" s="7">
         <v>2023030900</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" hidden="1" spans="1:11">
       <c r="A399" s="7">
         <v>2023030913</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" hidden="1" spans="1:11">
       <c r="A400" s="7">
         <v>2023030916</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" hidden="1" spans="1:11">
       <c r="A401" s="7">
         <v>2023030925</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" hidden="1" spans="1:11">
       <c r="A402" s="7">
         <v>2023030926</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" hidden="1" spans="1:11">
       <c r="A403" s="7">
         <v>2023030929</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" hidden="1" spans="1:11">
       <c r="A404" s="7">
         <v>2023030930</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" hidden="1" spans="1:11">
       <c r="A405" s="7">
         <v>2023030942</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" hidden="1" spans="1:11">
       <c r="A406" s="7">
         <v>2023030944</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" hidden="1" spans="1:11">
       <c r="A407" s="7">
         <v>2023030945</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" hidden="1" spans="1:11">
       <c r="A408" s="7">
         <v>2023030946</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" hidden="1" spans="1:11">
       <c r="A409" s="7">
         <v>2023030972</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" hidden="1" spans="1:11">
       <c r="A410" s="7">
         <v>2023030975</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" hidden="1" spans="1:11">
       <c r="A411" s="7">
         <v>2023030982</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" hidden="1" spans="1:11">
       <c r="A412" s="7">
         <v>2023030987</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" hidden="1" spans="1:11">
       <c r="A413" s="7">
         <v>2023030990</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" hidden="1" spans="1:11">
       <c r="A414" s="7">
         <v>2023030994</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" hidden="1" spans="1:11">
       <c r="A415" s="7">
         <v>2023030995</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" hidden="1" spans="1:11">
       <c r="A416" s="7">
         <v>2023030997</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" hidden="1" spans="1:11">
       <c r="A417" s="7">
         <v>2023031008</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" hidden="1" spans="1:11">
       <c r="A418" s="7">
         <v>2023031020</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" hidden="1" spans="1:11">
       <c r="A419" s="7">
         <v>2023031022</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" hidden="1" spans="1:11">
       <c r="A420" s="7">
         <v>2023031024</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" hidden="1" spans="1:11">
       <c r="A421" s="7">
         <v>2023031031</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" hidden="1" spans="1:11">
       <c r="A422" s="7">
         <v>2023031032</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" hidden="1" spans="1:11">
       <c r="A423" s="7">
         <v>2023031034</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" hidden="1" spans="1:11">
       <c r="A424" s="7">
         <v>2023031039</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" hidden="1" spans="1:11">
       <c r="A425" s="7">
         <v>2023031041</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" hidden="1" spans="1:11">
       <c r="A426" s="7">
         <v>2023031047</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" hidden="1" spans="1:11">
       <c r="A428" s="7">
         <v>2023031076</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" hidden="1" spans="1:11">
       <c r="A429" s="7">
         <v>2023031080</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" hidden="1" spans="1:11">
       <c r="A430" s="7">
         <v>2023031086</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" hidden="1" spans="1:11">
       <c r="A431" s="7">
         <v>2023031092</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" hidden="1" spans="1:11">
       <c r="A432" s="7">
         <v>2023031093</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" hidden="1" spans="1:11">
       <c r="A433" s="7">
         <v>2023031097</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" hidden="1" spans="1:11">
       <c r="A434" s="7">
         <v>2023031100</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" hidden="1" spans="1:11">
       <c r="A435" s="7">
         <v>2023031124</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" hidden="1" spans="1:11">
       <c r="A436" s="7">
         <v>2023031131</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" hidden="1" spans="1:11">
       <c r="A437" s="7">
         <v>2023031148</v>
       </c>
@@ -19143,7 +19143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" hidden="1" spans="1:11">
       <c r="A438" s="7">
         <v>2023031152</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" hidden="1" spans="1:11">
       <c r="A439" s="7">
         <v>2023031157</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" hidden="1" spans="1:11">
       <c r="A440" s="7">
         <v>2023031161</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" hidden="1" spans="1:11">
       <c r="A441" s="7">
         <v>2023031163</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" hidden="1" spans="1:11">
       <c r="A442" s="7">
         <v>2023031165</v>
       </c>
@@ -19318,7 +19318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" hidden="1" spans="1:11">
       <c r="A443" s="7">
         <v>2023031166</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" hidden="1" spans="1:11">
       <c r="A444" s="7">
         <v>2023031167</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" hidden="1" spans="1:11">
       <c r="A445" s="7">
         <v>2023031169</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" hidden="1" spans="1:11">
       <c r="A449" s="7">
         <v>2023031178</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" hidden="1" spans="1:11">
       <c r="A450" s="7">
         <v>2023031180</v>
       </c>
@@ -19598,7 +19598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" hidden="1" spans="1:11">
       <c r="A451" s="7">
         <v>2023031185</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" hidden="1" spans="1:11">
       <c r="A452" s="7">
         <v>2023031192</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" hidden="1" spans="1:11">
       <c r="A453" s="7">
         <v>2023031195</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" hidden="1" spans="1:11">
       <c r="A454" s="7">
         <v>2023031205</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" hidden="1" spans="1:11">
       <c r="A455" s="7">
         <v>2023031206</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" hidden="1" spans="1:11">
       <c r="A456" s="7">
         <v>2023031217</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" hidden="1" spans="1:11">
       <c r="A457" s="7">
         <v>2023031218</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" hidden="1" spans="1:11">
       <c r="A458" s="7">
         <v>2023031220</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" hidden="1" spans="1:11">
       <c r="A459" s="7">
         <v>2023031221</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" hidden="1" spans="1:11">
       <c r="A460" s="7">
         <v>2023031223</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" hidden="1" spans="1:11">
       <c r="A461" s="7">
         <v>2023031224</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" hidden="1" spans="1:11">
       <c r="A462" s="7">
         <v>2023031228</v>
       </c>
@@ -20018,7 +20018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" hidden="1" spans="1:11">
       <c r="A463" s="7">
         <v>2023031238</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" hidden="1" spans="1:11">
       <c r="A468" s="7">
         <v>2023031248</v>
       </c>
@@ -20228,7 +20228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" hidden="1" spans="1:11">
       <c r="A469" s="7">
         <v>2023031251</v>
       </c>
@@ -20298,7 +20298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" hidden="1" spans="1:11">
       <c r="A471" s="7">
         <v>2023031273</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" hidden="1" spans="1:11">
       <c r="A472" s="7">
         <v>2023031287</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" hidden="1" spans="1:11">
       <c r="A473" s="7">
         <v>2023031288</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" hidden="1" spans="1:11">
       <c r="A474" s="7">
         <v>2023031289</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" hidden="1" spans="1:11">
       <c r="A475" s="7">
         <v>2023031291</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" hidden="1" spans="1:11">
       <c r="A476" s="7">
         <v>2023031294</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" hidden="1" spans="1:11">
       <c r="A477" s="7">
         <v>2023031300</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" hidden="1" spans="1:11">
       <c r="A478" s="7">
         <v>2023031301</v>
       </c>
@@ -20578,7 +20578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" hidden="1" spans="1:11">
       <c r="A479" s="7">
         <v>2023031310</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" hidden="1" spans="1:11">
       <c r="A480" s="7">
         <v>2023031319</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" hidden="1" spans="1:11">
       <c r="A481" s="7">
         <v>2023031338</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" hidden="1" spans="1:11">
       <c r="A482" s="7">
         <v>2023031339</v>
       </c>
@@ -20718,7 +20718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" hidden="1" spans="1:11">
       <c r="A483" s="7">
         <v>2023031340</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" hidden="1" spans="1:11">
       <c r="A484" s="7">
         <v>2023031341</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" hidden="1" spans="1:11">
       <c r="A485" s="7">
         <v>2023031342</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" hidden="1" spans="1:11">
       <c r="A486" s="7">
         <v>2023031345</v>
       </c>
@@ -20858,7 +20858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" hidden="1" spans="1:11">
       <c r="A487" s="7">
         <v>2023031356</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" hidden="1" spans="1:11">
       <c r="A488" s="7">
         <v>2023031358</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" hidden="1" spans="1:11">
       <c r="A489" s="7">
         <v>2023031371</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" hidden="1" spans="1:11">
       <c r="A490" s="7">
         <v>2023031378</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" hidden="1" spans="1:11">
       <c r="A491" s="7">
         <v>2023031383</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" hidden="1" spans="1:11">
       <c r="A492" s="7">
         <v>2023031396</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" hidden="1" spans="1:11">
       <c r="A493" s="7">
         <v>2023031413</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" hidden="1" spans="1:11">
       <c r="A494" s="7">
         <v>2023031415</v>
       </c>
@@ -21138,7 +21138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" hidden="1" spans="1:11">
       <c r="A495" s="7">
         <v>2023031443</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" hidden="1" spans="1:11">
       <c r="A496" s="7">
         <v>2023031444</v>
       </c>
@@ -21208,7 +21208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" hidden="1" spans="1:11">
       <c r="A497" s="7">
         <v>2023031445</v>
       </c>
@@ -21243,7 +21243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" hidden="1" spans="1:11">
       <c r="A498" s="7">
         <v>2023031448</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" hidden="1" spans="1:11">
       <c r="A499" s="7">
         <v>2023031450</v>
       </c>
@@ -21313,7 +21313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" hidden="1" spans="1:11">
       <c r="A500" s="7">
         <v>2023031452</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" hidden="1" spans="1:11">
       <c r="A501" s="7">
         <v>2023031453</v>
       </c>
@@ -21383,7 +21383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" hidden="1" spans="1:11">
       <c r="A502" s="7">
         <v>2023031454</v>
       </c>
@@ -21418,7 +21418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" hidden="1" spans="1:11">
       <c r="A503" s="7">
         <v>2023031455</v>
       </c>
@@ -21453,7 +21453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" hidden="1" spans="1:11">
       <c r="A504" s="7">
         <v>2023031456</v>
       </c>
@@ -21488,7 +21488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" hidden="1" spans="1:11">
       <c r="A505" s="7">
         <v>2023031458</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" hidden="1" spans="1:11">
       <c r="A506" s="7">
         <v>2023031459</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" hidden="1" spans="1:11">
       <c r="A507" s="7">
         <v>2023031465</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" hidden="1" spans="1:11">
       <c r="A508" s="7">
         <v>2023031467</v>
       </c>
@@ -21628,7 +21628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" hidden="1" spans="1:11">
       <c r="A509" s="7">
         <v>2023031471</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" hidden="1" spans="1:11">
       <c r="A510" s="7">
         <v>2023031472</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" hidden="1" spans="1:11">
       <c r="A511" s="7">
         <v>2023031473</v>
       </c>
@@ -21733,7 +21733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" hidden="1" spans="1:11">
       <c r="A512" s="7">
         <v>2023031475</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" hidden="1" spans="1:11">
       <c r="A513" s="7">
         <v>2023031478</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" hidden="1" spans="1:11">
       <c r="A514" s="7">
         <v>2023031479</v>
       </c>
@@ -21838,7 +21838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" hidden="1" spans="1:11">
       <c r="A515" s="7">
         <v>2023031486</v>
       </c>
@@ -21873,7 +21873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" hidden="1" spans="1:11">
       <c r="A516" s="7">
         <v>2023031496</v>
       </c>
@@ -21908,7 +21908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" hidden="1" spans="1:11">
       <c r="A517" s="7">
         <v>2023031503</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" hidden="1" spans="1:11">
       <c r="A518" s="7">
         <v>2023031504</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" hidden="1" spans="1:11">
       <c r="A519" s="7">
         <v>2023031505</v>
       </c>
@@ -22013,7 +22013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" hidden="1" spans="1:11">
       <c r="A520" s="7">
         <v>2023031509</v>
       </c>
@@ -22048,7 +22048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" hidden="1" spans="1:11">
       <c r="A521" s="7">
         <v>2023031514</v>
       </c>
@@ -22083,7 +22083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" hidden="1" spans="1:11">
       <c r="A522" s="7">
         <v>2023031519</v>
       </c>
@@ -22118,7 +22118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" hidden="1" spans="1:11">
       <c r="A523" s="7">
         <v>2023031520</v>
       </c>
@@ -22153,7 +22153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" hidden="1" spans="1:11">
       <c r="A524" s="7">
         <v>2023031525</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" hidden="1" spans="1:11">
       <c r="A525" s="7">
         <v>2023031527</v>
       </c>
@@ -22223,7 +22223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" hidden="1" spans="1:11">
       <c r="A526" s="7">
         <v>2023031532</v>
       </c>
@@ -22258,7 +22258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" hidden="1" spans="1:11">
       <c r="A527" s="7">
         <v>2023031545</v>
       </c>
@@ -22293,7 +22293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" hidden="1" spans="1:11">
       <c r="A528" s="7">
         <v>2023031551</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" hidden="1" spans="1:11">
       <c r="A529" s="7">
         <v>2023031552</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" hidden="1" spans="1:11">
       <c r="A530" s="7">
         <v>2023031553</v>
       </c>
@@ -22398,7 +22398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" hidden="1" spans="1:11">
       <c r="A531" s="7">
         <v>2023031556</v>
       </c>
@@ -22433,7 +22433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" hidden="1" spans="1:11">
       <c r="A532" s="7">
         <v>2023031557</v>
       </c>
@@ -22468,7 +22468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" hidden="1" spans="1:11">
       <c r="A533" s="7">
         <v>2023031561</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" hidden="1" spans="1:11">
       <c r="A534" s="7">
         <v>2023031566</v>
       </c>
@@ -22538,7 +22538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" hidden="1" spans="1:11">
       <c r="A535" s="7">
         <v>2023031569</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" hidden="1" spans="1:11">
       <c r="A536" s="7">
         <v>2023031570</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" hidden="1" spans="1:11">
       <c r="A537" s="7">
         <v>2023031571</v>
       </c>
@@ -22643,7 +22643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" hidden="1" spans="1:11">
       <c r="A538" s="7">
         <v>2023031572</v>
       </c>
@@ -22678,7 +22678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" hidden="1" spans="1:11">
       <c r="A539" s="7">
         <v>2023031574</v>
       </c>
@@ -22713,7 +22713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" hidden="1" spans="1:11">
       <c r="A540" s="7">
         <v>2023031580</v>
       </c>
@@ -22748,7 +22748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" hidden="1" spans="1:11">
       <c r="A541" s="7">
         <v>2023031584</v>
       </c>
@@ -22783,7 +22783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" hidden="1" spans="1:11">
       <c r="A542" s="7">
         <v>2023031608</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" hidden="1" spans="1:11">
       <c r="A543" s="7">
         <v>2023031623</v>
       </c>
@@ -22853,7 +22853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" hidden="1" spans="1:11">
       <c r="A544" s="7">
         <v>2023031625</v>
       </c>
@@ -22888,7 +22888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" hidden="1" spans="1:11">
       <c r="A545" s="7">
         <v>2023031626</v>
       </c>
@@ -22923,7 +22923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" hidden="1" spans="1:11">
       <c r="A546" s="7">
         <v>2023031628</v>
       </c>
@@ -22958,7 +22958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" hidden="1" spans="1:11">
       <c r="A547" s="7">
         <v>2023031629</v>
       </c>
@@ -22993,7 +22993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" hidden="1" spans="1:11">
       <c r="A548" s="7">
         <v>2023031631</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" hidden="1" spans="1:11">
       <c r="A549" s="7">
         <v>2023031632</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" hidden="1" spans="1:11">
       <c r="A550" s="7">
         <v>2023031634</v>
       </c>
@@ -23098,7 +23098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" hidden="1" spans="1:11">
       <c r="A551" s="7">
         <v>2023031644</v>
       </c>
@@ -23133,7 +23133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" hidden="1" spans="1:11">
       <c r="A552" s="7">
         <v>2023031645</v>
       </c>
@@ -23168,7 +23168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" hidden="1" spans="1:11">
       <c r="A553" s="7">
         <v>2023031646</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" hidden="1" spans="1:11">
       <c r="A554" s="7">
         <v>2023031650</v>
       </c>
@@ -23238,7 +23238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" hidden="1" spans="1:11">
       <c r="A555" s="7">
         <v>2023031651</v>
       </c>
@@ -23273,7 +23273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" hidden="1" spans="1:11">
       <c r="A556" s="7">
         <v>2023031653</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" hidden="1" spans="1:11">
       <c r="A557" s="7">
         <v>2023031661</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" hidden="1" spans="1:11">
       <c r="A558" s="7">
         <v>2023031679</v>
       </c>
@@ -23378,7 +23378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" hidden="1" spans="1:11">
       <c r="A559" s="7">
         <v>2023031681</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" hidden="1" spans="1:11">
       <c r="A560" s="7">
         <v>2023031682</v>
       </c>
@@ -23448,7 +23448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" hidden="1" spans="1:11">
       <c r="A561" s="7">
         <v>2023031683</v>
       </c>
@@ -23483,7 +23483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" hidden="1" spans="1:11">
       <c r="A562" s="7">
         <v>2023031684</v>
       </c>
@@ -23518,7 +23518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" hidden="1" spans="1:11">
       <c r="A563" s="7">
         <v>2023031685</v>
       </c>
@@ -23553,7 +23553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" hidden="1" spans="1:11">
       <c r="A564" s="7">
         <v>2023031688</v>
       </c>
@@ -23588,7 +23588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" hidden="1" spans="1:11">
       <c r="A565" s="7">
         <v>2023031693</v>
       </c>
@@ -23623,7 +23623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" hidden="1" spans="1:11">
       <c r="A566" s="7">
         <v>2023031694</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" hidden="1" spans="1:11">
       <c r="A567" s="7">
         <v>2023031695</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" hidden="1" spans="1:11">
       <c r="A568" s="7">
         <v>2023031696</v>
       </c>
@@ -23728,7 +23728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" hidden="1" spans="1:11">
       <c r="A569" s="7">
         <v>2023031698</v>
       </c>
@@ -23763,7 +23763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" hidden="1" spans="1:11">
       <c r="A570" s="7">
         <v>2023031699</v>
       </c>
@@ -23798,7 +23798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" hidden="1" spans="1:11">
       <c r="A571" s="7">
         <v>2023031700</v>
       </c>
@@ -23833,7 +23833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" hidden="1" spans="1:11">
       <c r="A572" s="7">
         <v>2023031702</v>
       </c>
@@ -23868,7 +23868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" hidden="1" spans="1:11">
       <c r="A573" s="7">
         <v>2023031703</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" hidden="1" spans="1:11">
       <c r="A574" s="7">
         <v>2023031704</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" hidden="1" spans="1:11">
       <c r="A575" s="7">
         <v>2023031705</v>
       </c>
@@ -23973,7 +23973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" hidden="1" spans="1:11">
       <c r="A576" s="7">
         <v>2023031728</v>
       </c>
@@ -24008,7 +24008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" hidden="1" spans="1:11">
       <c r="A577" s="7">
         <v>2023031737</v>
       </c>
@@ -24043,7 +24043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" hidden="1" spans="1:11">
       <c r="A578" s="7">
         <v>2023031739</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" hidden="1" spans="1:11">
       <c r="A579" s="7">
         <v>2023031740</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" hidden="1" spans="1:11">
       <c r="A580" s="7">
         <v>2023031742</v>
       </c>
@@ -24148,7 +24148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" hidden="1" spans="1:11">
       <c r="A581" s="7">
         <v>2023031743</v>
       </c>
@@ -24183,7 +24183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:11">
+    <row r="582" hidden="1" spans="1:11">
       <c r="A582" s="7">
         <v>2023031757</v>
       </c>
@@ -24218,7 +24218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" hidden="1" spans="1:11">
       <c r="A583" s="7">
         <v>2023031758</v>
       </c>
@@ -24253,7 +24253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:11">
+    <row r="584" hidden="1" spans="1:11">
       <c r="A584" s="7">
         <v>2023031760</v>
       </c>
@@ -24288,7 +24288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:11">
+    <row r="585" hidden="1" spans="1:11">
       <c r="A585" s="7">
         <v>2023031763</v>
       </c>
@@ -24323,7 +24323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:11">
+    <row r="586" hidden="1" spans="1:11">
       <c r="A586" s="7">
         <v>2023031773</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:11">
+    <row r="587" hidden="1" spans="1:11">
       <c r="A587" s="7">
         <v>2023031774</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" hidden="1" spans="1:11">
       <c r="A588" s="7">
         <v>2023031775</v>
       </c>
@@ -24428,7 +24428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" hidden="1" spans="1:11">
       <c r="A589" s="7">
         <v>2023031792</v>
       </c>
@@ -24463,7 +24463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:11">
+    <row r="590" hidden="1" spans="1:11">
       <c r="A590" s="7">
         <v>2023031796</v>
       </c>
@@ -24498,7 +24498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:11">
+    <row r="591" hidden="1" spans="1:11">
       <c r="A591" s="7">
         <v>2023031797</v>
       </c>
@@ -24533,7 +24533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" hidden="1" spans="1:11">
       <c r="A592" s="7">
         <v>2023031798</v>
       </c>
@@ -24568,7 +24568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:11">
+    <row r="593" hidden="1" spans="1:11">
       <c r="A593" s="7">
         <v>2023031801</v>
       </c>
@@ -24603,7 +24603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" hidden="1" spans="1:11">
       <c r="A594" s="7">
         <v>2023031803</v>
       </c>
@@ -24638,7 +24638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" hidden="1" spans="1:11">
       <c r="A595" s="7">
         <v>2023031804</v>
       </c>
@@ -24673,7 +24673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:11">
+    <row r="596" hidden="1" spans="1:11">
       <c r="A596" s="7">
         <v>2023031806</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:11">
+    <row r="597" hidden="1" spans="1:11">
       <c r="A597" s="7">
         <v>2023031811</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" hidden="1" spans="1:11">
       <c r="A598" s="7">
         <v>2023031812</v>
       </c>
@@ -24778,7 +24778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" hidden="1" spans="1:11">
       <c r="A599" s="7">
         <v>2023031814</v>
       </c>
@@ -24813,7 +24813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" hidden="1" spans="1:11">
       <c r="A600" s="7">
         <v>2023031818</v>
       </c>
@@ -24848,7 +24848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" hidden="1" spans="1:11">
       <c r="A601" s="7">
         <v>2023031820</v>
       </c>
@@ -24883,7 +24883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" hidden="1" spans="1:11">
       <c r="A602" s="7">
         <v>2023031821</v>
       </c>
@@ -24918,7 +24918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" hidden="1" spans="1:11">
       <c r="A603" s="7">
         <v>2023031822</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" hidden="1" spans="1:11">
       <c r="A604" s="7">
         <v>2023031824</v>
       </c>
@@ -24988,7 +24988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" hidden="1" spans="1:11">
       <c r="A605" s="7">
         <v>2023031826</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" hidden="1" spans="1:11">
       <c r="A606" s="7">
         <v>2023031827</v>
       </c>
@@ -25058,7 +25058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" hidden="1" spans="1:11">
       <c r="A607" s="7">
         <v>2023031831</v>
       </c>
@@ -25093,7 +25093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" hidden="1" spans="1:11">
       <c r="A608" s="7">
         <v>2023031832</v>
       </c>
@@ -25128,7 +25128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" hidden="1" spans="1:11">
       <c r="A609" s="7">
         <v>2023031833</v>
       </c>
@@ -25163,7 +25163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" hidden="1" spans="1:11">
       <c r="A610" s="7">
         <v>2023031843</v>
       </c>
@@ -25198,7 +25198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" hidden="1" spans="1:11">
       <c r="A611" s="7">
         <v>2023031846</v>
       </c>
@@ -25233,7 +25233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" hidden="1" spans="1:11">
       <c r="A612" s="7">
         <v>2023031847</v>
       </c>
@@ -25268,7 +25268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" hidden="1" spans="1:11">
       <c r="A613" s="7">
         <v>2023031848</v>
       </c>
@@ -25303,7 +25303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" hidden="1" spans="1:11">
       <c r="A614" s="7">
         <v>2023031856</v>
       </c>
@@ -25338,7 +25338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" hidden="1" spans="1:11">
       <c r="A615" s="7">
         <v>2023031858</v>
       </c>
@@ -25373,7 +25373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:11">
+    <row r="616" hidden="1" spans="1:11">
       <c r="A616" s="7">
         <v>2023031859</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:11">
+    <row r="617" hidden="1" spans="1:11">
       <c r="A617" s="7">
         <v>2023031860</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:11">
+    <row r="618" hidden="1" spans="1:11">
       <c r="A618" s="7">
         <v>2023031861</v>
       </c>
@@ -25478,7 +25478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" hidden="1" spans="1:11">
       <c r="A619" s="7">
         <v>2023031863</v>
       </c>
@@ -25513,7 +25513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" hidden="1" spans="1:11">
       <c r="A620" s="7">
         <v>2023031864</v>
       </c>
@@ -25548,7 +25548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" hidden="1" spans="1:11">
       <c r="A621" s="7">
         <v>2023031866</v>
       </c>
@@ -25583,7 +25583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:11">
+    <row r="622" hidden="1" spans="1:11">
       <c r="A622" s="7">
         <v>2023031873</v>
       </c>
@@ -25618,7 +25618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" hidden="1" spans="1:11">
       <c r="A623" s="7">
         <v>2023031878</v>
       </c>
@@ -25653,7 +25653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" hidden="1" spans="1:11">
       <c r="A624" s="7">
         <v>2023031882</v>
       </c>
@@ -25688,7 +25688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" hidden="1" spans="1:11">
       <c r="A625" s="7">
         <v>2023031883</v>
       </c>
@@ -25723,7 +25723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:11">
+    <row r="626" hidden="1" spans="1:11">
       <c r="A626" s="7">
         <v>2023031884</v>
       </c>
@@ -25758,7 +25758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:11">
+    <row r="627" hidden="1" spans="1:11">
       <c r="A627" s="7">
         <v>2023031886</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" hidden="1" spans="1:11">
       <c r="A628" s="7">
         <v>2023031889</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:11">
+    <row r="629" hidden="1" spans="1:11">
       <c r="A629" s="7">
         <v>2023031892</v>
       </c>
@@ -25863,7 +25863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" hidden="1" spans="1:11">
       <c r="A630" s="7">
         <v>2023031896</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" hidden="1" spans="1:11">
       <c r="A631" s="7">
         <v>2023031897</v>
       </c>
@@ -25933,7 +25933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" hidden="1" spans="1:11">
       <c r="A632" s="7">
         <v>2023031908</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" hidden="1" spans="1:11">
       <c r="A633" s="7">
         <v>2023031923</v>
       </c>
@@ -26003,7 +26003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" hidden="1" spans="1:11">
       <c r="A634" s="7">
         <v>2023031933</v>
       </c>
@@ -26038,7 +26038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:11">
+    <row r="635" hidden="1" spans="1:11">
       <c r="A635" s="7">
         <v>2023031937</v>
       </c>
@@ -26073,7 +26073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" hidden="1" spans="1:11">
       <c r="A636" s="7">
         <v>2023031938</v>
       </c>
@@ -26108,7 +26108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:11">
+    <row r="637" hidden="1" spans="1:11">
       <c r="A637" s="7">
         <v>2023031939</v>
       </c>
@@ -26143,7 +26143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" hidden="1" spans="1:11">
       <c r="A638" s="7">
         <v>2023031942</v>
       </c>
@@ -26213,7 +26213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:11">
+    <row r="640" hidden="1" spans="1:11">
       <c r="A640" s="7">
         <v>2023031952</v>
       </c>
@@ -26248,7 +26248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:11">
+    <row r="641" hidden="1" spans="1:11">
       <c r="A641" s="7">
         <v>2023031953</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:11">
+    <row r="642" hidden="1" spans="1:11">
       <c r="A642" s="7">
         <v>2023031954</v>
       </c>
@@ -26318,7 +26318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:11">
+    <row r="643" hidden="1" spans="1:11">
       <c r="A643" s="7">
         <v>2023031966</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:11">
+    <row r="644" hidden="1" spans="1:11">
       <c r="A644" s="7">
         <v>2023031967</v>
       </c>
@@ -26388,7 +26388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:11">
+    <row r="645" hidden="1" spans="1:11">
       <c r="A645" s="7">
         <v>2023031968</v>
       </c>
@@ -26423,7 +26423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:11">
+    <row r="646" hidden="1" spans="1:11">
       <c r="A646" s="7">
         <v>2023031969</v>
       </c>
@@ -26458,7 +26458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:11">
+    <row r="647" hidden="1" spans="1:11">
       <c r="A647" s="7">
         <v>2023031971</v>
       </c>
@@ -26493,7 +26493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:11">
+    <row r="648" hidden="1" spans="1:11">
       <c r="A648" s="7">
         <v>2023031980</v>
       </c>
@@ -26528,7 +26528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:11">
+    <row r="649" hidden="1" spans="1:11">
       <c r="A649" s="7">
         <v>2023031981</v>
       </c>
@@ -26563,7 +26563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:11">
+    <row r="650" hidden="1" spans="1:11">
       <c r="A650" s="7">
         <v>2023031982</v>
       </c>
@@ -26598,7 +26598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:11">
+    <row r="651" hidden="1" spans="1:11">
       <c r="A651" s="7">
         <v>2023031992</v>
       </c>
@@ -26633,7 +26633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:11">
+    <row r="652" hidden="1" spans="1:11">
       <c r="A652" s="7">
         <v>2023032013</v>
       </c>
@@ -26668,7 +26668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:11">
+    <row r="653" hidden="1" spans="1:11">
       <c r="A653" s="7">
         <v>2023032014</v>
       </c>
@@ -26703,7 +26703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:11">
+    <row r="654" hidden="1" spans="1:11">
       <c r="A654" s="7">
         <v>2023032029</v>
       </c>
@@ -26738,7 +26738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:11">
+    <row r="655" hidden="1" spans="1:11">
       <c r="A655" s="7">
         <v>2023032037</v>
       </c>
@@ -26773,7 +26773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:11">
+    <row r="656" hidden="1" spans="1:11">
       <c r="A656" s="7">
         <v>2023032038</v>
       </c>
@@ -26808,7 +26808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:11">
+    <row r="657" hidden="1" spans="1:11">
       <c r="A657" s="7">
         <v>2023032040</v>
       </c>
@@ -26843,7 +26843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:11">
+    <row r="658" hidden="1" spans="1:11">
       <c r="A658" s="7">
         <v>2023032041</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:11">
+    <row r="659" hidden="1" spans="1:11">
       <c r="A659" s="7">
         <v>2023032042</v>
       </c>
@@ -26913,7 +26913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" hidden="1" spans="1:11">
       <c r="A660" s="7">
         <v>2023032043</v>
       </c>
@@ -26948,7 +26948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:11">
+    <row r="661" hidden="1" spans="1:11">
       <c r="A661" s="7">
         <v>2023032045</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:11">
+    <row r="662" hidden="1" spans="1:11">
       <c r="A662" s="7">
         <v>2023032046</v>
       </c>
@@ -27018,7 +27018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" hidden="1" spans="1:11">
       <c r="A663" s="7">
         <v>2023032047</v>
       </c>
@@ -27053,7 +27053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" hidden="1" spans="1:11">
       <c r="A664" s="7">
         <v>2023032048</v>
       </c>
@@ -27088,7 +27088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" hidden="1" spans="1:11">
       <c r="A665" s="7">
         <v>2023032050</v>
       </c>
@@ -27123,7 +27123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:11">
+    <row r="666" hidden="1" spans="1:11">
       <c r="A666" s="7">
         <v>2023032051</v>
       </c>
@@ -27158,7 +27158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:11">
+    <row r="667" hidden="1" spans="1:11">
       <c r="A667" s="7">
         <v>2023032052</v>
       </c>
@@ -27193,7 +27193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:11">
+    <row r="668" hidden="1" spans="1:11">
       <c r="A668" s="7">
         <v>2023032054</v>
       </c>
@@ -27228,7 +27228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:11">
+    <row r="669" hidden="1" spans="1:11">
       <c r="A669" s="7">
         <v>2023032056</v>
       </c>
@@ -27263,7 +27263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:11">
+    <row r="670" hidden="1" spans="1:11">
       <c r="A670" s="7">
         <v>2023032057</v>
       </c>
@@ -27298,7 +27298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:11">
+    <row r="671" hidden="1" spans="1:11">
       <c r="A671" s="7">
         <v>2023032058</v>
       </c>
@@ -27333,7 +27333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:11">
+    <row r="672" hidden="1" spans="1:11">
       <c r="A672" s="7">
         <v>2023032062</v>
       </c>
@@ -27368,7 +27368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:11">
+    <row r="673" hidden="1" spans="1:11">
       <c r="A673" s="7">
         <v>2023032063</v>
       </c>
@@ -27403,7 +27403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:11">
+    <row r="674" hidden="1" spans="1:11">
       <c r="A674" s="7">
         <v>2023032064</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:11">
+    <row r="675" hidden="1" spans="1:11">
       <c r="A675" s="7">
         <v>2023032065</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:11">
+    <row r="676" hidden="1" spans="1:11">
       <c r="A676" s="7">
         <v>2023032067</v>
       </c>
@@ -27508,7 +27508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:11">
+    <row r="677" hidden="1" spans="1:11">
       <c r="A677" s="7">
         <v>2023032068</v>
       </c>
@@ -27543,7 +27543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:11">
+    <row r="678" hidden="1" spans="1:11">
       <c r="A678" s="7">
         <v>2023032070</v>
       </c>
@@ -27578,7 +27578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:11">
+    <row r="679" hidden="1" spans="1:11">
       <c r="A679" s="7">
         <v>2023032071</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:11">
+    <row r="680" hidden="1" spans="1:11">
       <c r="A680" s="7">
         <v>2023032072</v>
       </c>
@@ -27648,7 +27648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:11">
+    <row r="681" hidden="1" spans="1:11">
       <c r="A681" s="7">
         <v>2023030005</v>
       </c>
@@ -27683,7 +27683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:11">
+    <row r="682" hidden="1" spans="1:11">
       <c r="A682" s="7">
         <v>2023030006</v>
       </c>
@@ -27718,7 +27718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:11">
+    <row r="683" hidden="1" spans="1:11">
       <c r="A683" s="7">
         <v>2023030012</v>
       </c>
@@ -27753,7 +27753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:11">
+    <row r="684" hidden="1" spans="1:11">
       <c r="A684" s="7">
         <v>2023030022</v>
       </c>
@@ -27788,7 +27788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:11">
+    <row r="685" hidden="1" spans="1:11">
       <c r="A685" s="7">
         <v>2023030023</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:11">
+    <row r="686" hidden="1" spans="1:11">
       <c r="A686" s="7">
         <v>2023030029</v>
       </c>
@@ -27858,7 +27858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:11">
+    <row r="687" hidden="1" spans="1:11">
       <c r="A687" s="7">
         <v>2023030035</v>
       </c>
@@ -27893,7 +27893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:11">
+    <row r="688" hidden="1" spans="1:11">
       <c r="A688" s="7">
         <v>2023030040</v>
       </c>
@@ -27928,7 +27928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:11">
+    <row r="689" hidden="1" spans="1:11">
       <c r="A689" s="7">
         <v>2023030046</v>
       </c>
@@ -27963,7 +27963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:11">
+    <row r="690" hidden="1" spans="1:11">
       <c r="A690" s="7">
         <v>2023030050</v>
       </c>
@@ -27998,7 +27998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:11">
+    <row r="691" hidden="1" spans="1:11">
       <c r="A691" s="7">
         <v>2023030051</v>
       </c>
@@ -28033,7 +28033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:11">
+    <row r="692" hidden="1" spans="1:11">
       <c r="A692" s="7">
         <v>2023030054</v>
       </c>
@@ -28068,7 +28068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:11">
+    <row r="693" hidden="1" spans="1:11">
       <c r="A693" s="7">
         <v>2023030056</v>
       </c>
@@ -28103,7 +28103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:11">
+    <row r="694" hidden="1" spans="1:11">
       <c r="A694" s="7">
         <v>2023030057</v>
       </c>
@@ -28138,7 +28138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:11">
+    <row r="695" hidden="1" spans="1:11">
       <c r="A695" s="7">
         <v>2023030060</v>
       </c>
@@ -28173,7 +28173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:11">
+    <row r="696" hidden="1" spans="1:11">
       <c r="A696" s="7">
         <v>2023030073</v>
       </c>
@@ -28208,7 +28208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:11">
+    <row r="697" hidden="1" spans="1:11">
       <c r="A697" s="7">
         <v>2023030078</v>
       </c>
@@ -28243,7 +28243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:11">
+    <row r="698" hidden="1" spans="1:11">
       <c r="A698" s="7">
         <v>2023030080</v>
       </c>
@@ -28278,7 +28278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:11">
+    <row r="699" hidden="1" spans="1:11">
       <c r="A699" s="7">
         <v>2023030083</v>
       </c>
@@ -28313,7 +28313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:11">
+    <row r="700" hidden="1" spans="1:11">
       <c r="A700" s="7">
         <v>2023030084</v>
       </c>
@@ -28348,7 +28348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:11">
+    <row r="701" hidden="1" spans="1:11">
       <c r="A701" s="7">
         <v>2023030094</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:11">
+    <row r="702" hidden="1" spans="1:11">
       <c r="A702" s="7">
         <v>2023030095</v>
       </c>
@@ -28418,7 +28418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:11">
+    <row r="703" hidden="1" spans="1:11">
       <c r="A703" s="7">
         <v>2023030097</v>
       </c>
@@ -28453,7 +28453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:11">
+    <row r="704" hidden="1" spans="1:11">
       <c r="A704" s="7">
         <v>2023030105</v>
       </c>
@@ -28488,7 +28488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:11">
+    <row r="705" hidden="1" spans="1:11">
       <c r="A705" s="7">
         <v>2023030108</v>
       </c>
@@ -28523,7 +28523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:11">
+    <row r="706" hidden="1" spans="1:11">
       <c r="A706" s="7">
         <v>2023030112</v>
       </c>
@@ -28558,7 +28558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:11">
+    <row r="707" hidden="1" spans="1:11">
       <c r="A707" s="7">
         <v>2023030122</v>
       </c>
@@ -28593,7 +28593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:11">
+    <row r="708" hidden="1" spans="1:11">
       <c r="A708" s="7">
         <v>2023030124</v>
       </c>
@@ -28628,7 +28628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:11">
+    <row r="709" hidden="1" spans="1:11">
       <c r="A709" s="7">
         <v>2023030133</v>
       </c>
@@ -28663,7 +28663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" hidden="1" spans="1:11">
       <c r="A710" s="7">
         <v>2023030134</v>
       </c>
@@ -28698,7 +28698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:11">
+    <row r="711" hidden="1" spans="1:11">
       <c r="A711" s="7">
         <v>2023030139</v>
       </c>
@@ -28733,7 +28733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" hidden="1" spans="1:11">
       <c r="A712" s="7">
         <v>2023030142</v>
       </c>
@@ -28768,7 +28768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:11">
+    <row r="713" hidden="1" spans="1:11">
       <c r="A713" s="7">
         <v>2023030145</v>
       </c>
@@ -28803,7 +28803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:11">
+    <row r="714" hidden="1" spans="1:11">
       <c r="A714" s="7">
         <v>2023030148</v>
       </c>
@@ -28838,7 +28838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:11">
+    <row r="715" hidden="1" spans="1:11">
       <c r="A715" s="7">
         <v>2023030156</v>
       </c>
@@ -28873,7 +28873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:11">
+    <row r="716" hidden="1" spans="1:11">
       <c r="A716" s="7">
         <v>2023030158</v>
       </c>
@@ -28908,7 +28908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" hidden="1" spans="1:11">
       <c r="A717" s="7">
         <v>2023030162</v>
       </c>
@@ -28943,7 +28943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:11">
+    <row r="718" hidden="1" spans="1:11">
       <c r="A718" s="7">
         <v>2023030166</v>
       </c>
@@ -28978,7 +28978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:11">
+    <row r="719" hidden="1" spans="1:11">
       <c r="A719" s="7">
         <v>2023030180</v>
       </c>
@@ -29013,7 +29013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:11">
+    <row r="720" hidden="1" spans="1:11">
       <c r="A720" s="7">
         <v>2023030184</v>
       </c>
@@ -29048,7 +29048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:11">
+    <row r="721" hidden="1" spans="1:11">
       <c r="A721" s="7">
         <v>2023030185</v>
       </c>
@@ -29083,7 +29083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:11">
+    <row r="722" hidden="1" spans="1:11">
       <c r="A722" s="7">
         <v>2023030191</v>
       </c>
@@ -29118,7 +29118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:11">
+    <row r="723" hidden="1" spans="1:11">
       <c r="A723" s="7">
         <v>2023030194</v>
       </c>
@@ -29153,7 +29153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" hidden="1" spans="1:11">
       <c r="A724" s="7">
         <v>2023030195</v>
       </c>
@@ -29188,7 +29188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:11">
+    <row r="725" hidden="1" spans="1:11">
       <c r="A725" s="7">
         <v>2023030198</v>
       </c>
@@ -29223,7 +29223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:11">
+    <row r="726" hidden="1" spans="1:11">
       <c r="A726" s="7">
         <v>2023030208</v>
       </c>
@@ -29258,7 +29258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:11">
+    <row r="727" hidden="1" spans="1:11">
       <c r="A727" s="7">
         <v>2023030216</v>
       </c>
@@ -29293,7 +29293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:11">
+    <row r="728" hidden="1" spans="1:11">
       <c r="A728" s="7">
         <v>2023030224</v>
       </c>
@@ -29328,7 +29328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:11">
+    <row r="729" hidden="1" spans="1:11">
       <c r="A729" s="7">
         <v>2023030231</v>
       </c>
@@ -29363,7 +29363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:11">
+    <row r="730" hidden="1" spans="1:11">
       <c r="A730" s="7">
         <v>2023030232</v>
       </c>
@@ -29398,7 +29398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:11">
+    <row r="731" hidden="1" spans="1:11">
       <c r="A731" s="7">
         <v>2023030235</v>
       </c>
@@ -29433,7 +29433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:11">
+    <row r="732" hidden="1" spans="1:11">
       <c r="A732" s="7">
         <v>2023030252</v>
       </c>
@@ -29468,7 +29468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:11">
+    <row r="733" hidden="1" spans="1:11">
       <c r="A733" s="7">
         <v>2023030282</v>
       </c>
@@ -29503,7 +29503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:11">
+    <row r="734" hidden="1" spans="1:11">
       <c r="A734" s="7">
         <v>2023030296</v>
       </c>
@@ -29538,7 +29538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:11">
+    <row r="735" hidden="1" spans="1:11">
       <c r="A735" s="7">
         <v>2023030297</v>
       </c>
@@ -29573,7 +29573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" hidden="1" spans="1:11">
       <c r="A736" s="7">
         <v>2023030298</v>
       </c>
@@ -29608,7 +29608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:11">
+    <row r="737" hidden="1" spans="1:11">
       <c r="A737" s="7">
         <v>2023030319</v>
       </c>
@@ -29643,7 +29643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:11">
+    <row r="738" hidden="1" spans="1:11">
       <c r="A738" s="7">
         <v>2023030322</v>
       </c>
@@ -29678,7 +29678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:11">
+    <row r="739" hidden="1" spans="1:11">
       <c r="A739" s="7">
         <v>2023030332</v>
       </c>
@@ -29713,7 +29713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:11">
+    <row r="740" hidden="1" spans="1:11">
       <c r="A740" s="7">
         <v>2023030334</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:11">
+    <row r="741" hidden="1" spans="1:11">
       <c r="A741" s="7">
         <v>2023030341</v>
       </c>
@@ -29783,7 +29783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:11">
+    <row r="742" hidden="1" spans="1:11">
       <c r="A742" s="7">
         <v>2023030358</v>
       </c>
@@ -29818,7 +29818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:11">
+    <row r="743" hidden="1" spans="1:11">
       <c r="A743" s="7">
         <v>2023030368</v>
       </c>
@@ -29853,7 +29853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:11">
+    <row r="744" hidden="1" spans="1:11">
       <c r="A744" s="7">
         <v>2023030371</v>
       </c>
@@ -29888,7 +29888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:11">
+    <row r="745" hidden="1" spans="1:11">
       <c r="A745" s="7">
         <v>2023030374</v>
       </c>
@@ -29923,7 +29923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:11">
+    <row r="746" hidden="1" spans="1:11">
       <c r="A746" s="7">
         <v>2023030375</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:11">
+    <row r="747" hidden="1" spans="1:11">
       <c r="A747" s="7">
         <v>2023030376</v>
       </c>
@@ -29993,7 +29993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:11">
+    <row r="748" hidden="1" spans="1:11">
       <c r="A748" s="7">
         <v>2023030379</v>
       </c>
@@ -30028,7 +30028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:11">
+    <row r="749" hidden="1" spans="1:11">
       <c r="A749" s="7">
         <v>2023030382</v>
       </c>
@@ -30063,7 +30063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:11">
+    <row r="750" hidden="1" spans="1:11">
       <c r="A750" s="7">
         <v>2023030388</v>
       </c>
@@ -30098,7 +30098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:11">
+    <row r="751" hidden="1" spans="1:11">
       <c r="A751" s="7">
         <v>2023030406</v>
       </c>
@@ -30133,7 +30133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:11">
+    <row r="752" hidden="1" spans="1:11">
       <c r="A752" s="7">
         <v>2023030407</v>
       </c>
@@ -30168,7 +30168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:11">
+    <row r="753" hidden="1" spans="1:11">
       <c r="A753" s="7">
         <v>2023030421</v>
       </c>
@@ -30203,7 +30203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:11">
+    <row r="754" hidden="1" spans="1:11">
       <c r="A754" s="7">
         <v>2023030422</v>
       </c>
@@ -30238,7 +30238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:11">
+    <row r="755" hidden="1" spans="1:11">
       <c r="A755" s="7">
         <v>2023030430</v>
       </c>
@@ -30273,7 +30273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:11">
+    <row r="756" hidden="1" spans="1:11">
       <c r="A756" s="7">
         <v>2023030434</v>
       </c>
@@ -30308,7 +30308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:11">
+    <row r="757" hidden="1" spans="1:11">
       <c r="A757" s="7">
         <v>2023030437</v>
       </c>
@@ -30343,7 +30343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:11">
+    <row r="758" hidden="1" spans="1:11">
       <c r="A758" s="7">
         <v>2023030439</v>
       </c>
@@ -30378,7 +30378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:11">
+    <row r="759" hidden="1" spans="1:11">
       <c r="A759" s="7">
         <v>2023030445</v>
       </c>
@@ -30413,7 +30413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:11">
+    <row r="760" hidden="1" spans="1:11">
       <c r="A760" s="7">
         <v>2023030449</v>
       </c>
@@ -30448,7 +30448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:11">
+    <row r="761" hidden="1" spans="1:11">
       <c r="A761" s="7">
         <v>2023030450</v>
       </c>
@@ -30483,7 +30483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:11">
+    <row r="762" hidden="1" spans="1:11">
       <c r="A762" s="7">
         <v>2023030460</v>
       </c>
@@ -30518,7 +30518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:11">
+    <row r="763" hidden="1" spans="1:11">
       <c r="A763" s="7">
         <v>2023030464</v>
       </c>
@@ -30553,7 +30553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:11">
+    <row r="764" hidden="1" spans="1:11">
       <c r="A764" s="7">
         <v>2023030468</v>
       </c>
@@ -30588,7 +30588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:11">
+    <row r="765" hidden="1" spans="1:11">
       <c r="A765" s="7">
         <v>2023030476</v>
       </c>
@@ -30623,7 +30623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:11">
+    <row r="766" hidden="1" spans="1:11">
       <c r="A766" s="7">
         <v>2023030478</v>
       </c>
@@ -30658,7 +30658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:11">
+    <row r="767" hidden="1" spans="1:11">
       <c r="A767" s="7">
         <v>2023030497</v>
       </c>
@@ -30693,7 +30693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:11">
+    <row r="768" hidden="1" spans="1:11">
       <c r="A768" s="7">
         <v>2023030501</v>
       </c>
@@ -30728,7 +30728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:11">
+    <row r="769" hidden="1" spans="1:11">
       <c r="A769" s="7">
         <v>2023030504</v>
       </c>
@@ -30763,7 +30763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:11">
+    <row r="770" hidden="1" spans="1:11">
       <c r="A770" s="7">
         <v>2023030517</v>
       </c>
@@ -30798,7 +30798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:11">
+    <row r="771" hidden="1" spans="1:11">
       <c r="A771" s="7">
         <v>2023030518</v>
       </c>
@@ -30833,7 +30833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:11">
+    <row r="772" hidden="1" spans="1:11">
       <c r="A772" s="7">
         <v>2023030519</v>
       </c>
@@ -30868,7 +30868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:11">
+    <row r="773" hidden="1" spans="1:11">
       <c r="A773" s="7">
         <v>2023030536</v>
       </c>
@@ -30903,7 +30903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:11">
+    <row r="774" hidden="1" spans="1:11">
       <c r="A774" s="7">
         <v>2023030539</v>
       </c>
@@ -30938,7 +30938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:11">
+    <row r="775" hidden="1" spans="1:11">
       <c r="A775" s="7">
         <v>2023030543</v>
       </c>
@@ -30973,7 +30973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:11">
+    <row r="776" hidden="1" spans="1:11">
       <c r="A776" s="7">
         <v>2023030546</v>
       </c>
@@ -31008,7 +31008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:11">
+    <row r="777" hidden="1" spans="1:11">
       <c r="A777" s="7">
         <v>2023030551</v>
       </c>
@@ -31043,7 +31043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:11">
+    <row r="778" hidden="1" spans="1:11">
       <c r="A778" s="7">
         <v>2023030552</v>
       </c>
@@ -31078,7 +31078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:11">
+    <row r="779" hidden="1" spans="1:11">
       <c r="A779" s="7">
         <v>2023030560</v>
       </c>
@@ -31113,7 +31113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:11">
+    <row r="780" hidden="1" spans="1:11">
       <c r="A780" s="7">
         <v>2023030564</v>
       </c>
@@ -31148,7 +31148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:11">
+    <row r="781" hidden="1" spans="1:11">
       <c r="A781" s="7">
         <v>2023030570</v>
       </c>
@@ -31183,7 +31183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:11">
+    <row r="782" hidden="1" spans="1:11">
       <c r="A782" s="7">
         <v>2023030572</v>
       </c>
@@ -31218,7 +31218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:11">
+    <row r="783" hidden="1" spans="1:11">
       <c r="A783" s="7">
         <v>2023030577</v>
       </c>
@@ -31253,7 +31253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:11">
+    <row r="784" hidden="1" spans="1:11">
       <c r="A784" s="7">
         <v>2023030579</v>
       </c>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:11">
+    <row r="785" hidden="1" spans="1:11">
       <c r="A785" s="7">
         <v>2023030608</v>
       </c>
@@ -31323,7 +31323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:11">
+    <row r="786" hidden="1" spans="1:11">
       <c r="A786" s="7">
         <v>2023030687</v>
       </c>
@@ -31358,7 +31358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:11">
+    <row r="787" hidden="1" spans="1:11">
       <c r="A787" s="7">
         <v>2023030699</v>
       </c>
@@ -31393,7 +31393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:11">
+    <row r="788" hidden="1" spans="1:11">
       <c r="A788" s="7">
         <v>2023030726</v>
       </c>
@@ -31428,7 +31428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:11">
+    <row r="789" hidden="1" spans="1:11">
       <c r="A789" s="7">
         <v>2023030730</v>
       </c>
@@ -31463,7 +31463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:11">
+    <row r="790" hidden="1" spans="1:11">
       <c r="A790" s="7">
         <v>2023030732</v>
       </c>
@@ -31498,7 +31498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:11">
+    <row r="791" hidden="1" spans="1:11">
       <c r="A791" s="7">
         <v>2023030757</v>
       </c>
@@ -31533,7 +31533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:11">
+    <row r="792" hidden="1" spans="1:11">
       <c r="A792" s="7">
         <v>2023030758</v>
       </c>
@@ -31568,7 +31568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:11">
+    <row r="793" hidden="1" spans="1:11">
       <c r="A793" s="7">
         <v>2023030762</v>
       </c>
@@ -31603,7 +31603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:11">
+    <row r="794" hidden="1" spans="1:11">
       <c r="A794" s="7">
         <v>2023030766</v>
       </c>
@@ -31638,7 +31638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:11">
+    <row r="795" hidden="1" spans="1:11">
       <c r="A795" s="7">
         <v>2023030773</v>
       </c>
@@ -31673,7 +31673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:11">
+    <row r="796" hidden="1" spans="1:11">
       <c r="A796" s="7">
         <v>2023030787</v>
       </c>
@@ -31708,7 +31708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:11">
+    <row r="797" hidden="1" spans="1:11">
       <c r="A797" s="7">
         <v>2023030790</v>
       </c>
@@ -31743,7 +31743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:11">
+    <row r="798" hidden="1" spans="1:11">
       <c r="A798" s="7">
         <v>2023030791</v>
       </c>
@@ -31778,7 +31778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:11">
+    <row r="799" hidden="1" spans="1:11">
       <c r="A799" s="7">
         <v>2023030792</v>
       </c>
@@ -31813,7 +31813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:11">
+    <row r="800" hidden="1" spans="1:11">
       <c r="A800" s="7">
         <v>2023030793</v>
       </c>
@@ -31848,7 +31848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:11">
+    <row r="801" hidden="1" spans="1:11">
       <c r="A801" s="7">
         <v>2023030795</v>
       </c>
@@ -31883,7 +31883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:11">
+    <row r="802" hidden="1" spans="1:11">
       <c r="A802" s="7">
         <v>2023030803</v>
       </c>
@@ -31918,7 +31918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:11">
+    <row r="803" hidden="1" spans="1:11">
       <c r="A803" s="7">
         <v>2023030804</v>
       </c>
@@ -31953,7 +31953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:11">
+    <row r="804" hidden="1" spans="1:11">
       <c r="A804" s="7">
         <v>2023030805</v>
       </c>
@@ -31988,7 +31988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:11">
+    <row r="805" hidden="1" spans="1:11">
       <c r="A805" s="7">
         <v>2023030806</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:11">
+    <row r="806" hidden="1" spans="1:11">
       <c r="A806" s="7">
         <v>2023030808</v>
       </c>
@@ -32058,7 +32058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:11">
+    <row r="807" hidden="1" spans="1:11">
       <c r="A807" s="7">
         <v>2023030809</v>
       </c>
@@ -32093,7 +32093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:11">
+    <row r="808" hidden="1" spans="1:11">
       <c r="A808" s="7">
         <v>2023030816</v>
       </c>
@@ -32128,7 +32128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:11">
+    <row r="809" hidden="1" spans="1:11">
       <c r="A809" s="7">
         <v>2023030817</v>
       </c>
@@ -32163,7 +32163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:11">
+    <row r="810" hidden="1" spans="1:11">
       <c r="A810" s="7">
         <v>2023030830</v>
       </c>
@@ -32198,7 +32198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:11">
+    <row r="811" hidden="1" spans="1:11">
       <c r="A811" s="7">
         <v>2023030832</v>
       </c>
@@ -32233,7 +32233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:11">
+    <row r="812" hidden="1" spans="1:11">
       <c r="A812" s="7">
         <v>2023030844</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:11">
+    <row r="813" hidden="1" spans="1:11">
       <c r="A813" s="7">
         <v>2023030848</v>
       </c>
@@ -32303,7 +32303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:11">
+    <row r="814" hidden="1" spans="1:11">
       <c r="A814" s="7">
         <v>2023030849</v>
       </c>
@@ -32338,7 +32338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:11">
+    <row r="815" hidden="1" spans="1:11">
       <c r="A815" s="7">
         <v>2023030864</v>
       </c>
@@ -32373,7 +32373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:11">
+    <row r="816" hidden="1" spans="1:11">
       <c r="A816" s="7">
         <v>2023030865</v>
       </c>
@@ -32408,7 +32408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:11">
+    <row r="817" hidden="1" spans="1:11">
       <c r="A817" s="7">
         <v>2023030867</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:11">
+    <row r="818" hidden="1" spans="1:11">
       <c r="A818" s="7">
         <v>2023030884</v>
       </c>
@@ -32478,7 +32478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:11">
+    <row r="819" hidden="1" spans="1:11">
       <c r="A819" s="7">
         <v>2023030886</v>
       </c>
@@ -32513,7 +32513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:11">
+    <row r="820" hidden="1" spans="1:11">
       <c r="A820" s="7">
         <v>2023030891</v>
       </c>
@@ -32548,7 +32548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:11">
+    <row r="821" hidden="1" spans="1:11">
       <c r="A821" s="7">
         <v>2023030904</v>
       </c>
@@ -32583,7 +32583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:11">
+    <row r="822" hidden="1" spans="1:11">
       <c r="A822" s="7">
         <v>2023030905</v>
       </c>
@@ -32618,7 +32618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:11">
+    <row r="823" hidden="1" spans="1:11">
       <c r="A823" s="7">
         <v>2023030906</v>
       </c>
@@ -32653,7 +32653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:11">
+    <row r="824" hidden="1" spans="1:11">
       <c r="A824" s="7">
         <v>2023030911</v>
       </c>
@@ -32688,7 +32688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:11">
+    <row r="825" hidden="1" spans="1:11">
       <c r="A825" s="7">
         <v>2023030917</v>
       </c>
@@ -32723,7 +32723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:11">
+    <row r="826" hidden="1" spans="1:11">
       <c r="A826" s="7">
         <v>2023030918</v>
       </c>
@@ -32758,7 +32758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:11">
+    <row r="827" hidden="1" spans="1:11">
       <c r="A827" s="7">
         <v>2023030936</v>
       </c>
@@ -32793,7 +32793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:11">
+    <row r="828" hidden="1" spans="1:11">
       <c r="A828" s="7">
         <v>2023030939</v>
       </c>
@@ -32828,7 +32828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:11">
+    <row r="829" hidden="1" spans="1:11">
       <c r="A829" s="7">
         <v>2023030940</v>
       </c>
@@ -32863,7 +32863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:11">
+    <row r="830" hidden="1" spans="1:11">
       <c r="A830" s="7">
         <v>2023030952</v>
       </c>
@@ -32898,7 +32898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:11">
+    <row r="831" hidden="1" spans="1:11">
       <c r="A831" s="7">
         <v>2023030955</v>
       </c>
@@ -32933,7 +32933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:11">
+    <row r="832" hidden="1" spans="1:11">
       <c r="A832" s="7">
         <v>2023030959</v>
       </c>
@@ -32968,7 +32968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:11">
+    <row r="833" hidden="1" spans="1:11">
       <c r="A833" s="7">
         <v>2023030966</v>
       </c>
@@ -33003,7 +33003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:11">
+    <row r="834" hidden="1" spans="1:11">
       <c r="A834" s="7">
         <v>2023030969</v>
       </c>
@@ -33038,7 +33038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:11">
+    <row r="835" hidden="1" spans="1:11">
       <c r="A835" s="7">
         <v>2023030983</v>
       </c>
@@ -33073,7 +33073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:11">
+    <row r="836" hidden="1" spans="1:11">
       <c r="A836" s="7">
         <v>2023030989</v>
       </c>
@@ -33108,7 +33108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:11">
+    <row r="837" hidden="1" spans="1:11">
       <c r="A837" s="7">
         <v>2023030991</v>
       </c>
@@ -33143,7 +33143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:11">
+    <row r="838" hidden="1" spans="1:11">
       <c r="A838" s="7">
         <v>2023030992</v>
       </c>
@@ -33178,7 +33178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:11">
+    <row r="839" hidden="1" spans="1:11">
       <c r="A839" s="7">
         <v>2023030993</v>
       </c>
@@ -33213,7 +33213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:11">
+    <row r="840" hidden="1" spans="1:11">
       <c r="A840" s="7">
         <v>2023030999</v>
       </c>
@@ -33248,7 +33248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:11">
+    <row r="841" hidden="1" spans="1:11">
       <c r="A841" s="7">
         <v>2023031003</v>
       </c>
@@ -33283,7 +33283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:11">
+    <row r="842" hidden="1" spans="1:11">
       <c r="A842" s="7">
         <v>2023031004</v>
       </c>
@@ -33318,7 +33318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:11">
+    <row r="843" hidden="1" spans="1:11">
       <c r="A843" s="7">
         <v>2023031006</v>
       </c>
@@ -33353,7 +33353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:11">
+    <row r="844" hidden="1" spans="1:11">
       <c r="A844" s="7">
         <v>2023031012</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:11">
+    <row r="845" hidden="1" spans="1:11">
       <c r="A845" s="7">
         <v>2023031015</v>
       </c>
@@ -33423,7 +33423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:11">
+    <row r="846" hidden="1" spans="1:11">
       <c r="A846" s="7">
         <v>2023031033</v>
       </c>
@@ -33458,7 +33458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:11">
+    <row r="847" hidden="1" spans="1:11">
       <c r="A847" s="7">
         <v>2023031035</v>
       </c>
@@ -33493,7 +33493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:11">
+    <row r="848" hidden="1" spans="1:11">
       <c r="A848" s="7">
         <v>2023031037</v>
       </c>
@@ -33528,7 +33528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:11">
+    <row r="849" hidden="1" spans="1:11">
       <c r="A849" s="7">
         <v>2023031038</v>
       </c>
@@ -33563,7 +33563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:11">
+    <row r="850" hidden="1" spans="1:11">
       <c r="A850" s="7">
         <v>2023031043</v>
       </c>
@@ -33598,7 +33598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:11">
+    <row r="851" hidden="1" spans="1:11">
       <c r="A851" s="7">
         <v>2023031044</v>
       </c>
@@ -33633,7 +33633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:11">
+    <row r="852" hidden="1" spans="1:11">
       <c r="A852" s="7">
         <v>2023031048</v>
       </c>
@@ -33668,7 +33668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:11">
+    <row r="853" hidden="1" spans="1:11">
       <c r="A853" s="7">
         <v>2023031059</v>
       </c>
@@ -33703,7 +33703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:11">
+    <row r="854" hidden="1" spans="1:11">
       <c r="A854" s="7">
         <v>2023031060</v>
       </c>
@@ -33738,7 +33738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:11">
+    <row r="855" hidden="1" spans="1:11">
       <c r="A855" s="7">
         <v>2023031067</v>
       </c>
@@ -33773,7 +33773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:11">
+    <row r="856" hidden="1" spans="1:11">
       <c r="A856" s="7">
         <v>2023031074</v>
       </c>
@@ -33808,7 +33808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:11">
+    <row r="857" hidden="1" spans="1:11">
       <c r="A857" s="7">
         <v>2023031091</v>
       </c>
@@ -33843,7 +33843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:11">
+    <row r="858" hidden="1" spans="1:11">
       <c r="A858" s="7">
         <v>2023031094</v>
       </c>
@@ -33878,7 +33878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:11">
+    <row r="859" hidden="1" spans="1:11">
       <c r="A859" s="7">
         <v>2023031096</v>
       </c>
@@ -33913,7 +33913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:11">
+    <row r="860" hidden="1" spans="1:11">
       <c r="A860" s="7">
         <v>2023031098</v>
       </c>
@@ -33948,7 +33948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:11">
+    <row r="861" hidden="1" spans="1:11">
       <c r="A861" s="7">
         <v>2023031099</v>
       </c>
@@ -33983,7 +33983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:11">
+    <row r="862" hidden="1" spans="1:11">
       <c r="A862" s="7">
         <v>2023031126</v>
       </c>
@@ -34018,7 +34018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:11">
+    <row r="863" hidden="1" spans="1:11">
       <c r="A863" s="7">
         <v>2023031134</v>
       </c>
@@ -34053,7 +34053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:11">
+    <row r="864" hidden="1" spans="1:11">
       <c r="A864" s="7">
         <v>2023031136</v>
       </c>
@@ -34088,7 +34088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:11">
+    <row r="865" hidden="1" spans="1:11">
       <c r="A865" s="7">
         <v>2023031137</v>
       </c>
@@ -34123,7 +34123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:11">
+    <row r="866" hidden="1" spans="1:11">
       <c r="A866" s="7">
         <v>2023031143</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:11">
+    <row r="867" hidden="1" spans="1:11">
       <c r="A867" s="7">
         <v>2023031144</v>
       </c>
@@ -34193,7 +34193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:11">
+    <row r="868" hidden="1" spans="1:11">
       <c r="A868" s="7">
         <v>2023031145</v>
       </c>
@@ -34228,7 +34228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:11">
+    <row r="869" hidden="1" spans="1:11">
       <c r="A869" s="7">
         <v>2023031146</v>
       </c>
@@ -34263,7 +34263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:11">
+    <row r="870" hidden="1" spans="1:11">
       <c r="A870" s="7">
         <v>2023031154</v>
       </c>
@@ -34298,7 +34298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:11">
+    <row r="871" hidden="1" spans="1:11">
       <c r="A871" s="7">
         <v>2023031155</v>
       </c>
@@ -34333,7 +34333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:11">
+    <row r="872" hidden="1" spans="1:11">
       <c r="A872" s="7">
         <v>2023031156</v>
       </c>
@@ -34368,7 +34368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:11">
+    <row r="873" hidden="1" spans="1:11">
       <c r="A873" s="7">
         <v>2023031162</v>
       </c>
@@ -34403,7 +34403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:11">
+    <row r="874" hidden="1" spans="1:11">
       <c r="A874" s="7">
         <v>2023031164</v>
       </c>
@@ -34438,7 +34438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:11">
+    <row r="875" hidden="1" spans="1:11">
       <c r="A875" s="7">
         <v>2023031175</v>
       </c>
@@ -34473,7 +34473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:11">
+    <row r="876" hidden="1" spans="1:11">
       <c r="A876" s="7">
         <v>2023031179</v>
       </c>
@@ -34508,7 +34508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:11">
+    <row r="877" hidden="1" spans="1:11">
       <c r="A877" s="7">
         <v>2023031187</v>
       </c>
@@ -34543,7 +34543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:11">
+    <row r="878" hidden="1" spans="1:11">
       <c r="A878" s="7">
         <v>2023031193</v>
       </c>
@@ -34578,7 +34578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:11">
+    <row r="879" hidden="1" spans="1:11">
       <c r="A879" s="7">
         <v>2023031197</v>
       </c>
@@ -34613,7 +34613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:11">
+    <row r="880" hidden="1" spans="1:11">
       <c r="A880" s="7">
         <v>2023031198</v>
       </c>
@@ -34648,7 +34648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:11">
+    <row r="881" hidden="1" spans="1:11">
       <c r="A881" s="7">
         <v>2023031207</v>
       </c>
@@ -34683,7 +34683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:11">
+    <row r="882" hidden="1" spans="1:11">
       <c r="A882" s="7">
         <v>2023031208</v>
       </c>
@@ -34718,7 +34718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:11">
+    <row r="883" hidden="1" spans="1:11">
       <c r="A883" s="7">
         <v>2023031216</v>
       </c>
@@ -34753,7 +34753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:11">
+    <row r="884" hidden="1" spans="1:11">
       <c r="A884" s="7">
         <v>2023031227</v>
       </c>
@@ -34788,7 +34788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:11">
+    <row r="885" hidden="1" spans="1:11">
       <c r="A885" s="7">
         <v>2023031236</v>
       </c>
@@ -34823,7 +34823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:11">
+    <row r="886" hidden="1" spans="1:11">
       <c r="A886" s="7">
         <v>2023031240</v>
       </c>
@@ -34858,7 +34858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:11">
+    <row r="887" hidden="1" spans="1:11">
       <c r="A887" s="7">
         <v>2023031252</v>
       </c>
@@ -34893,7 +34893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:11">
+    <row r="888" hidden="1" spans="1:11">
       <c r="A888" s="7">
         <v>2023031253</v>
       </c>
@@ -34928,7 +34928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:11">
+    <row r="889" hidden="1" spans="1:11">
       <c r="A889" s="7">
         <v>2023031256</v>
       </c>
@@ -34963,7 +34963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:11">
+    <row r="890" hidden="1" spans="1:11">
       <c r="A890" s="7">
         <v>2023031267</v>
       </c>
@@ -34998,7 +34998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:11">
+    <row r="891" hidden="1" spans="1:11">
       <c r="A891" s="7">
         <v>2023031269</v>
       </c>
@@ -35033,7 +35033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:11">
+    <row r="892" hidden="1" spans="1:11">
       <c r="A892" s="7">
         <v>2023031270</v>
       </c>
@@ -35068,7 +35068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:11">
+    <row r="893" hidden="1" spans="1:11">
       <c r="A893" s="7">
         <v>2023031271</v>
       </c>
@@ -35103,7 +35103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:11">
+    <row r="894" hidden="1" spans="1:11">
       <c r="A894" s="7">
         <v>2023031285</v>
       </c>
@@ -35138,7 +35138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:11">
+    <row r="895" hidden="1" spans="1:11">
       <c r="A895" s="7">
         <v>2023031299</v>
       </c>
@@ -35173,7 +35173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:11">
+    <row r="896" hidden="1" spans="1:11">
       <c r="A896" s="7">
         <v>2023031305</v>
       </c>
@@ -35208,7 +35208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:11">
+    <row r="897" hidden="1" spans="1:11">
       <c r="A897" s="7">
         <v>2023031308</v>
       </c>
@@ -35243,7 +35243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:11">
+    <row r="898" hidden="1" spans="1:11">
       <c r="A898" s="7">
         <v>2023031311</v>
       </c>
@@ -35278,7 +35278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:11">
+    <row r="899" hidden="1" spans="1:11">
       <c r="A899" s="7">
         <v>2023031312</v>
       </c>
@@ -35313,7 +35313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:11">
+    <row r="900" hidden="1" spans="1:11">
       <c r="A900" s="7">
         <v>2023031313</v>
       </c>
@@ -35348,7 +35348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:11">
+    <row r="901" hidden="1" spans="1:11">
       <c r="A901" s="7">
         <v>2023031314</v>
       </c>
@@ -35383,7 +35383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:11">
+    <row r="902" hidden="1" spans="1:11">
       <c r="A902" s="7">
         <v>2023031315</v>
       </c>
@@ -35418,7 +35418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:11">
+    <row r="903" hidden="1" spans="1:11">
       <c r="A903" s="7">
         <v>2023031322</v>
       </c>
@@ -35453,7 +35453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:11">
+    <row r="904" hidden="1" spans="1:11">
       <c r="A904" s="7">
         <v>2023031327</v>
       </c>
@@ -35488,7 +35488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:11">
+    <row r="905" hidden="1" spans="1:11">
       <c r="A905" s="7">
         <v>2023031329</v>
       </c>
@@ -35523,7 +35523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:11">
+    <row r="906" hidden="1" spans="1:11">
       <c r="A906" s="7">
         <v>2023031354</v>
       </c>
@@ -35558,7 +35558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:11">
+    <row r="907" hidden="1" spans="1:11">
       <c r="A907" s="7">
         <v>2023031359</v>
       </c>
@@ -35593,7 +35593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:11">
+    <row r="908" hidden="1" spans="1:11">
       <c r="A908" s="7">
         <v>2023031360</v>
       </c>
@@ -35628,7 +35628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:11">
+    <row r="909" hidden="1" spans="1:11">
       <c r="A909" s="7">
         <v>2023031365</v>
       </c>
@@ -35663,7 +35663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:11">
+    <row r="910" hidden="1" spans="1:11">
       <c r="A910" s="7">
         <v>2023031366</v>
       </c>
@@ -35698,7 +35698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:11">
+    <row r="911" hidden="1" spans="1:11">
       <c r="A911" s="7">
         <v>2023031377</v>
       </c>
@@ -35733,7 +35733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:11">
+    <row r="912" hidden="1" spans="1:11">
       <c r="A912" s="7">
         <v>2023031380</v>
       </c>
@@ -35768,7 +35768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:11">
+    <row r="913" hidden="1" spans="1:11">
       <c r="A913" s="7">
         <v>2023031381</v>
       </c>
@@ -35803,7 +35803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:11">
+    <row r="914" hidden="1" spans="1:11">
       <c r="A914" s="7">
         <v>2023031390</v>
       </c>
@@ -35838,7 +35838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:11">
+    <row r="915" hidden="1" spans="1:11">
       <c r="A915" s="7">
         <v>2023031400</v>
       </c>
@@ -35873,7 +35873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:11">
+    <row r="916" hidden="1" spans="1:11">
       <c r="A916" s="7">
         <v>2023031409</v>
       </c>
@@ -35908,7 +35908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:11">
+    <row r="917" hidden="1" spans="1:11">
       <c r="A917" s="7">
         <v>2023031416</v>
       </c>
@@ -35943,7 +35943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:11">
+    <row r="918" hidden="1" spans="1:11">
       <c r="A918" s="7">
         <v>2023031417</v>
       </c>
@@ -35978,7 +35978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:11">
+    <row r="919" hidden="1" spans="1:11">
       <c r="A919" s="7">
         <v>2023031421</v>
       </c>
@@ -36013,7 +36013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:11">
+    <row r="920" hidden="1" spans="1:11">
       <c r="A920" s="7">
         <v>2023031461</v>
       </c>
@@ -36048,7 +36048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:11">
+    <row r="921" hidden="1" spans="1:11">
       <c r="A921" s="7">
         <v>2023031462</v>
       </c>
@@ -36083,7 +36083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:11">
+    <row r="922" hidden="1" spans="1:11">
       <c r="A922" s="7">
         <v>2023031474</v>
       </c>
@@ -36118,7 +36118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:11">
+    <row r="923" hidden="1" spans="1:11">
       <c r="A923" s="7">
         <v>2023031476</v>
       </c>
@@ -36153,7 +36153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:11">
+    <row r="924" hidden="1" spans="1:11">
       <c r="A924" s="7">
         <v>2023031477</v>
       </c>
@@ -36188,7 +36188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:11">
+    <row r="925" hidden="1" spans="1:11">
       <c r="A925" s="7">
         <v>2023031480</v>
       </c>
@@ -36223,7 +36223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:11">
+    <row r="926" hidden="1" spans="1:11">
       <c r="A926" s="7">
         <v>2023031487</v>
       </c>
@@ -36258,7 +36258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:11">
+    <row r="927" hidden="1" spans="1:11">
       <c r="A927" s="7">
         <v>2023031488</v>
       </c>
@@ -36293,7 +36293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:11">
+    <row r="928" hidden="1" spans="1:11">
       <c r="A928" s="7">
         <v>2023031489</v>
       </c>
@@ -36328,7 +36328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:11">
+    <row r="929" hidden="1" spans="1:11">
       <c r="A929" s="7">
         <v>2023031492</v>
       </c>
@@ -36363,7 +36363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:11">
+    <row r="930" hidden="1" spans="1:11">
       <c r="A930" s="7">
         <v>2023031493</v>
       </c>
@@ -36398,7 +36398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:11">
+    <row r="931" hidden="1" spans="1:11">
       <c r="A931" s="7">
         <v>2023031494</v>
       </c>
@@ -36433,7 +36433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:11">
+    <row r="932" hidden="1" spans="1:11">
       <c r="A932" s="7">
         <v>2023031495</v>
       </c>
@@ -36468,7 +36468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:11">
+    <row r="933" hidden="1" spans="1:11">
       <c r="A933" s="7">
         <v>2023031506</v>
       </c>
@@ -36503,7 +36503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:11">
+    <row r="934" hidden="1" spans="1:11">
       <c r="A934" s="7">
         <v>2023031515</v>
       </c>
@@ -36538,7 +36538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:11">
+    <row r="935" hidden="1" spans="1:11">
       <c r="A935" s="7">
         <v>2023031516</v>
       </c>
@@ -36573,7 +36573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:11">
+    <row r="936" hidden="1" spans="1:11">
       <c r="A936" s="7">
         <v>2023031518</v>
       </c>
@@ -36608,7 +36608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:11">
+    <row r="937" hidden="1" spans="1:11">
       <c r="A937" s="7">
         <v>2023031523</v>
       </c>
@@ -36643,7 +36643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:11">
+    <row r="938" hidden="1" spans="1:11">
       <c r="A938" s="7">
         <v>2023031528</v>
       </c>
@@ -36678,7 +36678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:11">
+    <row r="939" hidden="1" spans="1:11">
       <c r="A939" s="7">
         <v>2023031529</v>
       </c>
@@ -36713,7 +36713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:11">
+    <row r="940" hidden="1" spans="1:11">
       <c r="A940" s="7">
         <v>2023031531</v>
       </c>
@@ -36748,7 +36748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:11">
+    <row r="941" hidden="1" spans="1:11">
       <c r="A941" s="7">
         <v>2023031536</v>
       </c>
@@ -36783,7 +36783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:11">
+    <row r="942" hidden="1" spans="1:11">
       <c r="A942" s="7">
         <v>2023031547</v>
       </c>
@@ -36818,7 +36818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:11">
+    <row r="943" hidden="1" spans="1:11">
       <c r="A943" s="7">
         <v>2023031549</v>
       </c>
@@ -36853,7 +36853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:11">
+    <row r="944" hidden="1" spans="1:11">
       <c r="A944" s="7">
         <v>2023031550</v>
       </c>
@@ -36888,7 +36888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:11">
+    <row r="945" hidden="1" spans="1:11">
       <c r="A945" s="7">
         <v>2023031560</v>
       </c>
@@ -36923,7 +36923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:11">
+    <row r="946" hidden="1" spans="1:11">
       <c r="A946" s="7">
         <v>2023031564</v>
       </c>
@@ -36958,7 +36958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:11">
+    <row r="947" hidden="1" spans="1:11">
       <c r="A947" s="7">
         <v>2023031581</v>
       </c>
@@ -36993,7 +36993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:11">
+    <row r="948" hidden="1" spans="1:11">
       <c r="A948" s="7">
         <v>2023031587</v>
       </c>
@@ -37028,7 +37028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:11">
+    <row r="949" hidden="1" spans="1:11">
       <c r="A949" s="7">
         <v>2023031589</v>
       </c>
@@ -37063,7 +37063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:11">
+    <row r="950" hidden="1" spans="1:11">
       <c r="A950" s="7">
         <v>2023031592</v>
       </c>
@@ -37098,7 +37098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:11">
+    <row r="951" hidden="1" spans="1:11">
       <c r="A951" s="7">
         <v>2023031617</v>
       </c>
@@ -37133,7 +37133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:11">
+    <row r="952" hidden="1" spans="1:11">
       <c r="A952" s="7">
         <v>2023031647</v>
       </c>
@@ -37168,7 +37168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:11">
+    <row r="953" hidden="1" spans="1:11">
       <c r="A953" s="7">
         <v>2023031671</v>
       </c>
@@ -37203,7 +37203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:11">
+    <row r="954" hidden="1" spans="1:11">
       <c r="A954" s="7">
         <v>2023031673</v>
       </c>
@@ -37238,7 +37238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:11">
+    <row r="955" hidden="1" spans="1:11">
       <c r="A955" s="7">
         <v>2023031676</v>
       </c>
@@ -37273,7 +37273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:11">
+    <row r="956" hidden="1" spans="1:11">
       <c r="A956" s="7">
         <v>2023031697</v>
       </c>
@@ -37308,7 +37308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:11">
+    <row r="957" hidden="1" spans="1:11">
       <c r="A957" s="7">
         <v>2023031718</v>
       </c>
@@ -37343,7 +37343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:11">
+    <row r="958" hidden="1" spans="1:11">
       <c r="A958" s="7">
         <v>2023031719</v>
       </c>
@@ -37378,7 +37378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:11">
+    <row r="959" hidden="1" spans="1:11">
       <c r="A959" s="7">
         <v>2023031723</v>
       </c>
@@ -37413,7 +37413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:11">
+    <row r="960" hidden="1" spans="1:11">
       <c r="A960" s="7">
         <v>2023031746</v>
       </c>
@@ -37448,7 +37448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:11">
+    <row r="961" hidden="1" spans="1:11">
       <c r="A961" s="7">
         <v>2023031761</v>
       </c>
@@ -37483,7 +37483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:11">
+    <row r="962" hidden="1" spans="1:11">
       <c r="A962" s="7">
         <v>2023031768</v>
       </c>
@@ -37518,7 +37518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:11">
+    <row r="963" hidden="1" spans="1:11">
       <c r="A963" s="7">
         <v>2023031793</v>
       </c>
@@ -37553,7 +37553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:11">
+    <row r="964" hidden="1" spans="1:11">
       <c r="A964" s="7">
         <v>2023031794</v>
       </c>
@@ -37588,7 +37588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:11">
+    <row r="965" hidden="1" spans="1:11">
       <c r="A965" s="7">
         <v>2023031810</v>
       </c>
@@ -37623,7 +37623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:11">
+    <row r="966" hidden="1" spans="1:11">
       <c r="A966" s="7">
         <v>2023031830</v>
       </c>
@@ -37658,7 +37658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:11">
+    <row r="967" hidden="1" spans="1:11">
       <c r="A967" s="7">
         <v>2023031862</v>
       </c>
@@ -37693,7 +37693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:11">
+    <row r="968" hidden="1" spans="1:11">
       <c r="A968" s="7">
         <v>2023031874</v>
       </c>
@@ -37728,7 +37728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:11">
+    <row r="969" hidden="1" spans="1:11">
       <c r="A969" s="7">
         <v>2023031879</v>
       </c>
@@ -37763,7 +37763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:11">
+    <row r="970" hidden="1" spans="1:11">
       <c r="A970" s="7">
         <v>2023031881</v>
       </c>
@@ -37798,7 +37798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:11">
+    <row r="971" hidden="1" spans="1:11">
       <c r="A971" s="7">
         <v>2023031902</v>
       </c>
@@ -37833,7 +37833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:11">
+    <row r="972" hidden="1" spans="1:11">
       <c r="A972" s="7">
         <v>2023031915</v>
       </c>
@@ -37868,7 +37868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:11">
+    <row r="973" hidden="1" spans="1:11">
       <c r="A973" s="7">
         <v>2023031918</v>
       </c>
@@ -37903,7 +37903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:11">
+    <row r="974" hidden="1" spans="1:11">
       <c r="A974" s="7">
         <v>2023031922</v>
       </c>
@@ -37938,7 +37938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:11">
+    <row r="975" hidden="1" spans="1:11">
       <c r="A975" s="7">
         <v>2023031956</v>
       </c>
@@ -37973,7 +37973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:11">
+    <row r="976" hidden="1" spans="1:11">
       <c r="A976" s="7">
         <v>2023031972</v>
       </c>
@@ -38008,7 +38008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:11">
+    <row r="977" hidden="1" spans="1:11">
       <c r="A977" s="7">
         <v>2023031985</v>
       </c>
@@ -38043,7 +38043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:11">
+    <row r="978" hidden="1" spans="1:11">
       <c r="A978" s="7">
         <v>2023031988</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:11">
+    <row r="979" hidden="1" spans="1:11">
       <c r="A979" s="7">
         <v>2023031995</v>
       </c>
@@ -38113,7 +38113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:11">
+    <row r="980" hidden="1" spans="1:11">
       <c r="A980" s="7">
         <v>2023031996</v>
       </c>
@@ -38148,7 +38148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:11">
+    <row r="981" hidden="1" spans="1:11">
       <c r="A981" s="7">
         <v>2023031998</v>
       </c>
@@ -38183,7 +38183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:11">
+    <row r="982" hidden="1" spans="1:11">
       <c r="A982" s="7">
         <v>2023031999</v>
       </c>
@@ -38218,7 +38218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:11">
+    <row r="983" hidden="1" spans="1:11">
       <c r="A983" s="7">
         <v>2023032003</v>
       </c>
@@ -38253,7 +38253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:11">
+    <row r="984" hidden="1" spans="1:11">
       <c r="A984" s="7">
         <v>2023032006</v>
       </c>
@@ -38288,7 +38288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:11">
+    <row r="985" hidden="1" spans="1:11">
       <c r="A985" s="7">
         <v>2023032016</v>
       </c>
@@ -38323,7 +38323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:11">
+    <row r="986" hidden="1" spans="1:11">
       <c r="A986" s="7">
         <v>2023032018</v>
       </c>
@@ -38358,7 +38358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:11">
+    <row r="987" hidden="1" spans="1:11">
       <c r="A987" s="7">
         <v>2023032019</v>
       </c>
@@ -38393,7 +38393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:11">
+    <row r="988" hidden="1" spans="1:11">
       <c r="A988" s="7">
         <v>2023032020</v>
       </c>
@@ -38428,7 +38428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:11">
+    <row r="989" hidden="1" spans="1:11">
       <c r="A989" s="7">
         <v>2023032022</v>
       </c>
@@ -38463,7 +38463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:11">
+    <row r="990" hidden="1" spans="1:11">
       <c r="A990" s="7">
         <v>2023032024</v>
       </c>
@@ -38498,7 +38498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:11">
+    <row r="991" hidden="1" spans="1:11">
       <c r="A991" s="7">
         <v>2023032033</v>
       </c>
@@ -38533,7 +38533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:11">
+    <row r="992" hidden="1" spans="1:11">
       <c r="A992" s="7">
         <v>2023032034</v>
       </c>
@@ -38568,7 +38568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:11">
+    <row r="993" hidden="1" spans="1:11">
       <c r="A993" s="7">
         <v>2023032036</v>
       </c>
@@ -38603,7 +38603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:11">
+    <row r="994" hidden="1" spans="1:11">
       <c r="A994" s="7">
         <v>2023032073</v>
       </c>
@@ -38638,7 +38638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:11">
+    <row r="995" hidden="1" spans="1:11">
       <c r="A995" s="7">
         <v>2023032074</v>
       </c>
@@ -38673,7 +38673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:11">
+    <row r="996" hidden="1" spans="1:11">
       <c r="A996" s="7">
         <v>2023032076</v>
       </c>
@@ -38708,7 +38708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:11">
+    <row r="997" hidden="1" spans="1:11">
       <c r="A997" s="7">
         <v>2023032078</v>
       </c>
@@ -38743,7 +38743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:11">
+    <row r="998" hidden="1" spans="1:11">
       <c r="A998" s="7">
         <v>2023032079</v>
       </c>
@@ -38778,7 +38778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:11">
+    <row r="999" hidden="1" spans="1:11">
       <c r="A999" s="7">
         <v>2023032080</v>
       </c>
@@ -38814,7 +38814,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D49865">
+  <autoFilter ref="F1:F999">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
